--- a/public/preprocessing/@AgusYudhoyono.xlsx
+++ b/public/preprocessing/@AgusYudhoyono.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>22899</v>
+        <v>31475</v>
       </c>
       <c r="C2" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">terima kasih saya ucapkan untuk prof budhi pak wayan pak umar bang ifan mbak vera dan mas steven atas support </t>
+          <t>hari ini sy bersilaturahmi dg senior yg pernah menjabat sbg ketua dewan kehormatan ketua mahkamah</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'saya', 'ucapkan', 'untuk', 'prof', 'budhi', 'pak', 'wayan', 'pak', 'umar', 'bang', 'ifan', 'mbak', 'vera', 'dan', 'mas', 'steven', 'atas', 'support']</t>
+          <t>['hari', 'ini', 'sy', 'bersilaturahmi', 'dg', 'senior', 'yg', 'pernah', 'menjabat', 'sbg', 'ketua', 'dewan', 'kehormatan', 'ketua', 'mahkamah']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['hari', 'ini', 'saya', 'bersilaturahmi', 'dengan', 'senior', 'yang', 'pernah', 'menjabat', 'sebagai', 'ketua', 'dewan', 'kehormatan', 'ketua', 'mahkamah']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'ucapkan', 'prof', 'budhi', 'wayan', 'umar', 'bang', 'ifan', 'mbak', 'vera', 'mas', 'steven', 'support']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'ucap', 'prof', 'budhi', 'wayan', 'umar', 'bang', 'ifan', 'mbak', 'vera', 'mas', 'steven', 'support']</t>
+          <t>['bersilaturahmi', 'senior', 'menjabat', 'ketua', 'dewan', 'kehormatan', 'ketua', 'mahkamah']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['silaturahmi', 'senior', 'jabat', 'ketua', 'dewan', 'hormat', 'ketua', 'mahkamah']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22900</v>
+        <v>31476</v>
       </c>
       <c r="C3" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>para tokoh pendiri pun menegaskan mengecam gerakan gpkpd apalagi klb justru mendukung penuh saya dan temanteman</t>
+          <t>pagi tadi saya bersama pengurus dpp bersilaturahmi ke kediaman jk kami berdiskusi ttg kebangsaan</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['para', 'tokoh', 'pendiri', 'pun', 'menegaskan', 'mengecam', 'gerakan', 'gpkpd', 'apalagi', 'klb', 'justru', 'mendukung', 'penuh', 'saya', 'dan', 'temanteman']</t>
+          <t>['pagi', 'tadi', 'saya', 'bersama', 'pengurus', 'dpp', 'bersilaturahmi', 'ke', 'kediaman', 'jk', 'kami', 'berdiskusi', 'ttg', 'kebangsaan']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['pagi', 'tadi', 'saya', 'bersama', 'pengurus', 'dasar, pengenaan, pajak', 'bersilaturahmi', 'ke', 'kediaman', 'jika', 'kami', 'berdiskusi', 'tentang', 'kebangsaan']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['tokoh', 'pendiri', 'mengecam', 'gerakan', 'gpkpd', 'klb', 'mendukung', 'penuh', 'temanteman']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['tokoh', 'diri', 'kecam', 'gera', 'gpkpd', 'klb', 'dukung', 'penuh', 'temanteman']</t>
+          <t>['pagi', 'pengurus', 'dasar, pengenaan, pajak', 'bersilaturahmi', 'kediaman', 'berdiskusi', 'kebangsaan']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['pagi', 'urus', 'dasar kena pajak', 'silaturahmi', 'diam', 'diskus', 'bangsa']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22901</v>
+        <v>31477</v>
       </c>
       <c r="C4" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>dalam diskusi saya mendengar lgsg dr para tokoh tsb bahwa klaim yg disampaikan oknum tsb tdk benar pak sby adl</t>
+          <t>selamat hari raya nyepi tahun baru saka bagi para sahabat umat hindu yang melaksanakannya selamat menja</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['dalam', 'diskusi', 'saya', 'mendengar', 'lgsg', 'dr', 'para', 'tokoh', 'tsb', 'bahwa', 'klaim', 'yg', 'disampaikan', 'oknum', 'tsb', 'tdk', 'benar', 'pak', 'sby', 'adl']</t>
+          <t>['selamat', 'hari', 'raya', 'nyepi', 'tahun', 'baru', 'saka', 'bagi', 'para', 'sahabat', 'umat', 'hindu', 'yang', 'melaksanakannya', 'selamat', 'menja']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['selamat', 'hari', 'raya', 'nyepi', 'tahun', 'baru', 'saka', 'bagi', 'para', 'sahabat', 'umat', 'hindu', 'yang', 'melaksanakannya', 'selamat', 'menja']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['diskusi', 'mendengar', 'lgsg', 'dr', 'tokoh', 'tsb', 'klaim', 'oknum', 'tsb', 'sby', 'adl']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['diskusi', 'dengar', 'lgsg', 'dr', 'tokoh', 'tsb', 'klaim', 'oknum', 'tsb', 'sby', 'adl']</t>
+          <t>['selamat', 'raya', 'nyepi', 'saka', 'sahabat', 'umat', 'hindu', 'melaksanakannya', 'selamat', 'menja']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['selamat', 'raya', 'nyepi', 'saka', 'sahabat', 'umat', 'hindu', 'laksana', 'selamat', 'menja']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22902</v>
+        <v>31478</v>
       </c>
       <c r="C5" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>pertemuan ini adl inisiatif kami bersama utk merespon gaduhnya pemberitaan akibat oknum yang mengakungaku sbg pen</t>
+          <t>saya mengucapkan terimakasih atas dukungan para ahli hukum amp pecinta demokrasi ini untuk gugatan ke pn</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['pertemuan', 'ini', 'adl', 'inisiatif', 'kami', 'bersama', 'utk', 'merespon', 'gaduhnya', 'pemberitaan', 'akibat', 'oknum', 'yang', 'mengakungaku', 'sbg', 'pen']</t>
+          <t>['saya', 'mengucapkan', 'terimakasih', 'atas', 'dukungan', 'para', 'ahli', 'hukum', 'amp', 'pecinta', 'demokrasi', 'ini', 'untuk', 'gugatan', 'ke', 'pn']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>['saya', 'mengucapkan', 'terima, kasih', 'atas', 'dukungan', 'para', 'ahli', 'hukum', 'amp', 'pencinta', 'demokrasi', 'ini', 'untuk', 'gugatan', 'ke', 'pengadilan, negeri']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['pertemuan', 'adl', 'inisiatif', 'merespon', 'gaduhnya', 'pemberitaan', 'akibat', 'oknum', 'mengakungaku', 'sbg']</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['temu', 'adl', 'inisiatif', 'merespon', 'gaduh', 'berita', 'akibat', 'oknum', 'mengakungaku', 'sbg']</t>
+          <t>['terima, kasih', 'dukungan', 'ahli', 'hukum', 'pencinta', 'demokrasi', 'gugatan', 'pengadilan, negeri']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'dukung', 'ahli', 'hukum', 'cinta', 'demokrasi', 'gugat', 'adil negeri']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22903</v>
+        <v>31479</v>
       </c>
       <c r="C6" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>pertemuan ini adl inisiatif kami bersama utk merespon gaduhnya pemberitaan akibat oknum yg mengakungaku sbg pendi</t>
+          <t xml:space="preserve">hari ini melalui tim pembela demokrasi menggugat oknum penggerak klb ilegal ke pn jakpus tim </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['pertemuan', 'ini', 'adl', 'inisiatif', 'kami', 'bersama', 'utk', 'merespon', 'gaduhnya', 'pemberitaan', 'akibat', 'oknum', 'yg', 'mengakungaku', 'sbg', 'pendi']</t>
+          <t>['hari', 'ini', 'melalui', 'tim', 'pembela', 'demokrasi', 'menggugat', 'oknum', 'penggerak', 'klb', 'ilegal', 'ke', 'pn', 'jakpus', 'tim']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['hari', 'ini', 'melalui', 'tim', 'pembela', 'demokrasi', 'menggugat', 'oknum', 'penggerak', 'klb', 'ilegal', 'ke', 'pengadilan, negeri', 'jakpus', 'tim']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['pertemuan', 'adl', 'inisiatif', 'merespon', 'gaduhnya', 'pemberitaan', 'akibat', 'oknum', 'mengakungaku', 'sbg', 'pendi']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['temu', 'adl', 'inisiatif', 'merespon', 'gaduh', 'berita', 'akibat', 'oknum', 'mengakungaku', 'sbg', 'pendi']</t>
+          <t>['tim', 'pembela', 'demokrasi', 'menggugat', 'oknum', 'penggerak', 'klb', 'ilegal', 'pengadilan, negeri', 'jakpus', 'tim']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['tim', 'bela', 'demokrasi', 'gugat', 'oknum', 'gerak', 'klb', 'ilegal', 'adil negeri', 'jakpus', 'tim']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22904</v>
+        <v>31480</v>
       </c>
       <c r="C7" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>kemarin saya didampingi sekjen partai demokrat bersilaturahmi dgn tokoh pendiri ada prof subur budhis</t>
+          <t>saya beserta seluruh jajaran pimpinan pengurus amp kader mengucapkan selamat ulang tahun ke bagi bapak</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['kemarin', 'saya', 'didampingi', 'sekjen', 'partai', 'demokrat', 'bersilaturahmi', 'dgn', 'tokoh', 'pendiri', 'ada', 'prof', 'subur', 'budhis']</t>
+          <t>['saya', 'beserta', 'seluruh', 'jajaran', 'pimpinan', 'pengurus', 'amp', 'kader', 'mengucapkan', 'selamat', 'ulang', 'tahun', 'ke', 'bagi', 'bapak']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['saya', 'beserta', 'seluruh', 'jajaran', 'pimpinan', 'pengurus', 'amp', 'kader', 'mengucapkan', 'selamat', 'ulang', 'tahun', 'ke', 'bagi', 'bapak']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['kemarin', 'didampingi', 'sekjen', 'partai', 'demokrat', 'bersilaturahmi', 'tokoh', 'pendiri', 'prof', 'subur', 'budhis']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['kemarin', 'damping', 'sekjen', 'partai', 'demokrat', 'silaturahmi', 'tokoh', 'diri', 'prof', 'subur', 'budhis']</t>
+          <t>['beserta', 'jajaran', 'pimpinan', 'pengurus', 'kader', 'selamat', 'ulang']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['serta', 'jajar', 'pimpin', 'urus', 'kader', 'selamat', 'ulang']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>22905</v>
+        <v>31481</v>
       </c>
       <c r="C8" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>terimakasih pak santoso lanjutkan</t>
+          <t>rt ikhtiar amp doa sdh ditunaikan pemerintah sdh katakan akan objektif dlm proses klb abal ini mari bersabar ut</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['terimakasih', 'pak', 'santoso', 'lanjutkan']</t>
+          <t>['rt', 'ikhtiar', 'amp', 'doa', 'sdh', 'ditunaikan', 'pemerintah', 'sdh', 'katakan', 'akan', 'objektif', 'dlm', 'proses', 'klb', 'abal', 'ini', 'mari', 'bersabar', 'ut']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'ikhtiar', 'amp', 'doa', 'sudah', 'ditunaikan', 'pemerintah', 'sudah', 'katakan', 'akan', 'objektif', 'dalam', 'proses', 'klb', 'abal', 'ini', 'mari', 'bersabar', 'ut']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['terimakasih', 'santoso', 'lanjutkan']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['terimakasih', 'santoso', 'lanjut']</t>
+          <t>['ikhtiar', 'doa', 'ditunaikan', 'pemerintah', 'objektif', 'proses', 'klb', 'abal', 'mari', 'bersabar', 'ut']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['ikhtiar', 'doa', 'tunai', 'perintah', 'objektif', 'proses', 'klb', 'abal', 'mari', 'sabar', 'ut']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>22906</v>
+        <v>31482</v>
       </c>
       <c r="C9" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>teman di dki jakarta yang saat ini terdampak banjir tetap semangat semoga banjir segera surut amp tidak menelan ko</t>
+          <t>terima kasih sudah menerima kami dengan baik pak jimly terima kasih atas masukan amp bimbingannya semoga bisa selal</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['teman', 'di', 'dki', 'jakarta', 'yang', 'saat', 'ini', 'terdampak', 'banjir', 'tetap', 'semangat', 'semoga', 'banjir', 'segera', 'surut', 'amp', 'tidak', 'menelan', 'ko']</t>
+          <t>['terima', 'kasih', 'sudah', 'menerima', 'kami', 'dengan', 'baik', 'pak', 'jimly', 'terima', 'kasih', 'atas', 'masukan', 'amp', 'bimbingannya', 'semoga', 'bisa', 'selal']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['terima', 'kasih', 'sudah', 'menerima', 'kami', 'dengan', 'baik', 'pak', 'jimly', 'terima', 'kasih', 'atas', 'masukan', 'amp', 'bimbingannya', 'semoga', 'bisa', 'selal']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['teman', 'dki', 'jakarta', 'terdampak', 'banjir', 'semangat', 'semoga', 'banjir', 'surut', 'menelan', 'ko']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['teman', 'dki', 'jakarta', 'dampak', 'banjir', 'semangat', 'moga', 'banjir', 'surut', 'tel', 'ko']</t>
+          <t>['terima', 'kasih', 'menerima', 'jimly', 'terima', 'kasih', 'masukan', 'bimbingannya', 'semoga', 'selal']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'terima', 'jimly', 'terima', 'kasih', 'masuk', 'bimbing', 'moga', 'selal']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22907</v>
+        <v>31483</v>
       </c>
       <c r="C10" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">innalillahi wa inna ilaihi rajiun turut berduka cita atas wafatnya letjen purn prof dr  syarifuddin tippe </t>
+          <t>ke depan saya ingin terus memperjuangkan nasib demokrasi kita demokrasi dengan kompetisi yang sehat amp fair yang</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'turut', 'berduka', 'cita', 'atas', 'wafatnya', 'letjen', 'purn', 'prof', 'dr', 'syarifuddin', 'tippe']</t>
+          <t>['ke', 'depan', 'saya', 'ingin', 'terus', 'memperjuangkan', 'nasib', 'demokrasi', 'kita', 'demokrasi', 'dengan', 'kompetisi', 'yang', 'sehat', 'amp', 'fair', 'yang']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['ke', 'depan', 'saya', 'ingin', 'terus', 'memperjuangkan', 'nasib', 'demokrasi', 'kita', 'demokrasi', 'dengan', 'kompetisi', 'yang', 'sehat', 'amp', 'fair', 'yang']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'berduka', 'cita', 'wafatnya', 'letjen', 'purn', 'prof', 'dr', 'syarifuddin', 'tippe']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'duka', 'cita', 'wafat', 'letjen', 'purn', 'prof', 'dr', 'syarifuddin', 'tippe']</t>
+          <t>['memperjuangkan', 'nasib', 'demokrasi', 'demokrasi', 'kompetisi', 'sehat', 'fair']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['juang', 'nasib', 'demokrasi', 'demokrasi', 'kompetisi', 'sehat', 'fair']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>22908</v>
+        <v>31484</v>
       </c>
       <c r="C11" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>mari bersamasama kita jaga dan rawat nilainilai demokrasi indonesia melalui sajian informasi publik yang menjunju</t>
+          <t>video ini menyuguhkan praktek politik yg tdk fair amp merusak demokrasi padahal sbg ketua umum amp generasi muda ind</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['mari', 'bersamasama', 'kita', 'jaga', 'dan', 'rawat', 'nilainilai', 'demokrasi', 'indonesia', 'melalui', 'sajian', 'informasi', 'publik', 'yang', 'menjunju']</t>
+          <t>['video', 'ini', 'menyuguhkan', 'praktek', 'politik', 'yg', 'tdk', 'fair', 'amp', 'merusak', 'demokrasi', 'padahal', 'sbg', 'ketua', 'umum', 'amp', 'generasi', 'muda', 'ind']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['video', 'ini', 'menyuguhkan', 'praktik', 'politik', 'yang', 'tidak', 'fair', 'amp', 'merusak', 'demokrasi', 'padahal', 'sebagai', 'ketua', 'umum', 'amp', 'generasi', 'muda', 'indonesia']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['mari', 'bersamasama', 'jaga', 'rawat', 'nilainilai', 'demokrasi', 'indonesia', 'sajian', 'informasi', 'publik', 'menjunju']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['mari', 'bersamasama', 'jaga', 'rawat', 'nilainilai', 'demokrasi', 'indonesia', 'saji', 'informasi', 'publik', 'menjunju']</t>
+          <t>['video', 'menyuguhkan', 'praktik', 'politik', 'fair', 'merusak', 'demokrasi', 'ketua', 'generasi', 'muda', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['video', 'suguh', 'praktik', 'politik', 'fair', 'rusak', 'demokrasi', 'ketua', 'generasi', 'muda', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>22909</v>
+        <v>31485</v>
       </c>
       <c r="C12" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">masyarakat makin membutuhkan informasi yang bisa dipercaya tajam dan berpihak pada kepentingan rakyat pers yang </t>
+          <t>teman berikut adl satu dari bbrp testimoni peserta klb ilegal beliau adl wakil ketua dpc yg bukan pemegang suara</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['masyarakat', 'makin', 'membutuhkan', 'informasi', 'yang', 'bisa', 'dipercaya', 'tajam', 'dan', 'berpihak', 'pada', 'kepentingan', 'rakyat', 'pers', 'yang']</t>
+          <t>['teman', 'berikut', 'adl', 'satu', 'dari', 'bbrp', 'testimoni', 'peserta', 'klb', 'ilegal', 'beliau', 'adl', 'wakil', 'ketua', 'dpc', 'yg', 'bukan', 'pemegang', 'suara']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['teman', 'berikut', 'adalah', 'satu', 'dari', 'beberapa', 'testimoni', 'peserta', 'klb', 'ilegal', 'beliau', 'adalah', 'wakil', 'ketua', 'dewan, pimpinan, cabang', 'yang', 'bukan', 'pemegang', 'suara']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['masyarakat', 'membutuhkan', 'informasi', 'dipercaya', 'tajam', 'berpihak', 'kepentingan', 'rakyat', 'pers']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['masyarakat', 'butuh', 'informasi', 'percaya', 'tajam', 'pihak', 'penting', 'rakyat', 'pers']</t>
+          <t>['teman', 'testimoni', 'peserta', 'klb', 'ilegal', 'beliau', 'wakil', 'ketua', 'dewan, pimpinan, cabang', 'pemegang', 'suara']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['teman', 'testimoni', 'serta', 'klb', 'ilegal', 'beliau', 'wakil', 'ketua', 'dewan pimpin cabang', 'pegang', 'suara']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>22910</v>
+        <v>31486</v>
       </c>
       <c r="C13" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>selamat hari pers nasional untuk kawankawan insan pers dari aceh hingga papua di tengah tsunami informasi seperti</t>
+          <t>kemarin saya jg bertemu dgn saya menjelaskan scr lengkap soal klb ilegal beserta fakta amp bukti</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['selamat', 'hari', 'pers', 'nasional', 'untuk', 'kawankawan', 'insan', 'pers', 'dari', 'aceh', 'hingga', 'papua', 'di', 'tengah', 'tsunami', 'informasi', 'seperti']</t>
+          <t>['kemarin', 'saya', 'jg', 'bertemu', 'dgn', 'saya', 'menjelaskan', 'scr', 'lengkap', 'soal', 'klb', 'ilegal', 'beserta', 'fakta', 'amp', 'bukti']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['kemarin', 'saya', 'juga', 'bertemu', 'dengan', 'saya', 'menjelaskan', 'secara', 'lengkap', 'soal', 'klb', 'ilegal', 'beserta', 'fakta', 'amp', 'bukti']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['selamat', 'pers', 'nasional', 'kawankawan', 'insan', 'pers', 'aceh', 'papua', 'tsunami', 'informasi']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['selamat', 'pers', 'nasional', 'kawankawan', 'insan', 'pers', 'aceh', 'papua', 'tsunami', 'informasi']</t>
+          <t>['kemarin', 'bertemu', 'lengkap', 'klb', 'ilegal', 'beserta', 'fakta', 'bukti']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['kemarin', 'temu', 'lengkap', 'klb', 'ilegal', 'serta', 'fakta', 'bukti']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>22911</v>
+        <v>31487</v>
       </c>
       <c r="C14" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>selamat ulang tahun yang pertama untuk jaringan media siber indonesia semoga selalu terdepan memberikan info</t>
+          <t xml:space="preserve">kami jg menyerahkan berkas legalitas kongres  amp adart yg sah ke kpu kami menyertakan bukti otentik </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['selamat', 'ulang', 'tahun', 'yang', 'pertama', 'untuk', 'jaringan', 'media', 'siber', 'indonesia', 'semoga', 'selalu', 'terdepan', 'memberikan', 'info']</t>
+          <t>['kami', 'jg', 'menyerahkan', 'berkas', 'legalitas', 'kongres', 'amp', 'adart', 'yg', 'sah', 'ke', 'kpu', 'kami', 'menyertakan', 'bukti', 'otentik']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['kami', 'juga', 'menyerahkan', 'berkas', 'legalitas', 'kongres', 'amp', 'adart', 'yang', 'sah', 'ke', 'komisi, pemelihan, umum', 'kami', 'menyertakan', 'bukti', 'otentik']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['selamat', 'ulang', 'jaringan', 'media', 'siber', 'indonesia', 'semoga', 'terdepan', 'info']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['selamat', 'ulang', 'jaring', 'media', 'siber', 'indonesia', 'moga', 'depan', 'info']</t>
+          <t>['menyerahkan', 'berkas', 'legalitas', 'kongres', 'adart', 'sah', 'komisi, pemelihan, umum', 'menyertakan', 'bukti', 'otentik']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['serah', 'berkas', 'legalitas', 'kongres', 'adart', 'sah', 'komisi pemelihan umum', 'serta', 'bukti', 'otentik']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>22912</v>
+        <v>31488</v>
       </c>
       <c r="C15" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>allahummaghfirlahu warhamhu wa afihi wafu anhu selamat jalan prof fiz semoga allah swt menerima amal ibadahmu</t>
+          <t>tadi pagi bersama pengurus dpp amp ketua dpd pd seindonesia saya menyerahkan sejumlah berkas legalit</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['allahummaghfirlahu', 'warhamhu', 'wa', 'afihi', 'wafu', 'anhu', 'selamat', 'jalan', 'prof', 'fiz', 'semoga', 'allah', 'swt', 'menerima', 'amal', 'ibadahmu']</t>
+          <t>['tadi', 'pagi', 'bersama', 'pengurus', 'dpp', 'amp', 'ketua', 'dpd', 'pd', 'seindonesia', 'saya', 'menyerahkan', 'sejumlah', 'berkas', 'legalit']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['tadi', 'pagi', 'bersama', 'pengurus', 'dasar, pengenaan, pajak', 'amp', 'ketua', 'dewan, perwakilan, daerah', 'pada', 'seindonesia', 'saya', 'menyerahkan', 'sejumlah', 'berkas', 'legalit']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['allahummaghfirlahu', 'warhamhu', 'wa', 'afihi', 'wafu', 'anhu', 'selamat', 'jalan', 'prof', 'fiz', 'semoga', 'allah', 'swt', 'menerima', 'amal', 'ibadahmu']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['allahummaghfirlahu', 'warhamhu', 'wa', 'afihi', 'wafu', 'anhu', 'selamat', 'jalan', 'prof', 'fiz', 'moga', 'allah', 'swt', 'terima', 'amal', 'ibadah']</t>
+          <t>['pagi', 'pengurus', 'dasar, pengenaan, pajak', 'ketua', 'dewan, perwakilan, daerah', 'seindonesia', 'menyerahkan', 'berkas', 'legalit']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['pagi', 'urus', 'dasar kena pajak', 'ketua', 'dewan wakil daerah', 'indonesia', 'serah', 'berkas', 'legalit']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>22913</v>
+        <v>31489</v>
       </c>
       <c r="C16" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>masih lekat dlm ingatan diskusi dgn beliau di forum seminar the yudhoyono institute di cikeas november lalu</t>
+          <t>terakhir saya melakukan apel siaga virtual bersama seluruh ketua dpc di kabkota di indonesia selama klb deli</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['masih', 'lekat', 'dlm', 'ingatan', 'diskusi', 'dgn', 'beliau', 'di', 'forum', 'seminar', 'the', 'yudhoyono', 'institute', 'di', 'cikeas', 'november', 'lalu']</t>
+          <t>['terakhir', 'saya', 'melakukan', 'apel', 'siaga', 'virtual', 'bersama', 'seluruh', 'ketua', 'dpc', 'di', 'kabkota', 'di', 'indonesia', 'selama', 'klb', 'deli']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>['terakhir', 'saya', 'melakukan', 'apel', 'siaga', 'virtual', 'bersama', 'seluruh', 'ketua', 'dewan, pimpinan, cabang', 'di', 'kabkota', 'di', 'indonesia', 'selama', 'klb', 'deli']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>['lekat', 'dlm', 'ingatan', 'diskusi', 'beliau', 'forum', 'seminar', 'the', 'yudhoyono', 'institute', 'cikeas', 'november']</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['lekat', 'dlm', 'ingat', 'diskusi', 'beliau', 'forum', 'seminar', 'the', 'yudhoyono', 'institute', 'cikeas', 'november']</t>
+          <t>['apel', 'siaga', 'virtual', 'ketua', 'dewan, pimpinan, cabang', 'kabkota', 'indonesia', 'klb', 'deli']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['apel', 'siaga', 'virtual', 'ketua', 'dewan pimpin cabang', 'kabkota', 'indonesia', 'klb', 'deli']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>22914</v>
+        <v>31490</v>
       </c>
       <c r="C17" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">saya mengenal alm sejak kiprah beliau sbg dekan termuda di universitas indonesia amp ikut membantu bpk sby sbg staf </t>
+          <t>selanjutnya saya bertatap muka dgn ketua dpd yg sah amp legal scr hukum alhamdulillah seluruh ketua</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['saya', 'mengenal', 'alm', 'sejak', 'kiprah', 'beliau', 'sbg', 'dekan', 'termuda', 'di', 'universitas', 'indonesia', 'amp', 'ikut', 'membantu', 'bpk', 'sby', 'sbg', 'staf']</t>
+          <t>['selanjutnya', 'saya', 'bertatap', 'muka', 'dgn', 'ketua', 'dpd', 'yg', 'sah', 'amp', 'legal', 'scr', 'hukum', 'alhamdulillah', 'seluruh', 'ketua']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['selanjutnya', 'saya', 'bertatap', 'muka', 'dengan', 'ketua', 'dewan, perwakilan, daerah', 'yang', 'sah', 'amp', 'legal', 'secara', 'hukum', 'alhamdulillah', 'seluruh', 'ketua']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['mengenal', 'alm', 'kiprah', 'beliau', 'sbg', 'dekan', 'termuda', 'universitas', 'indonesia', 'membantu', 'bpk', 'sby', 'sbg', 'staf']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['kenal', 'alm', 'kiprah', 'beliau', 'sbg', 'dekan', 'muda', 'universitas', 'indonesia', 'bantu', 'bpk', 'sby', 'sbg', 'staf']</t>
+          <t>['bertatap', 'muka', 'ketua', 'dewan, perwakilan, daerah', 'sah', 'legal', 'hukum', 'alhamdulillah', 'ketua']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['tatap', 'muka', 'ketua', 'dewan wakil daerah', 'sah', 'legal', 'hukum', 'alhamdulillah', 'ketua']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>22915</v>
+        <v>31491</v>
       </c>
       <c r="C18" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>inna lillahi wa inna ilaihi rajiun hari ini kita kembali berduka telah berpulang ke rahmatullah prof firmanzah</t>
+          <t>kemarin saya memimpin rapat konsolidasi internal di kantor dpp agenda pertama adl rapat pimpin</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'hari', 'ini', 'kita', 'kembali', 'berduka', 'telah', 'berpulang', 'ke', 'rahmatullah', 'prof', 'firmanzah']</t>
+          <t>['kemarin', 'saya', 'memimpin', 'rapat', 'konsolidasi', 'internal', 'di', 'kantor', 'dpp', 'agenda', 'pertama', 'adl', 'rapat', 'pimpin']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['kemarin', 'saya', 'memimpin', 'rapat', 'konsolidasi', 'internal', 'di', 'kantor', 'dasar, pengenaan, pajak', 'agenda', 'pertama', 'adalah', 'rapat', 'pimpin']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'berduka', 'berpulang', 'rahmatullah', 'prof', 'firmanzah']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'duka', 'pulang', 'rahmatullah', 'prof', 'firmanzah']</t>
+          <t>['kemarin', 'memimpin', 'rapat', 'konsolidasi', 'internal', 'kantor', 'dasar, pengenaan, pajak', 'agenda', 'rapat', 'pimpin']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['kemarin', 'pimpin', 'rapat', 'konsolidasi', 'internal', 'kantor', 'dasar kena pajak', 'agenda', 'rapat', 'pimpin']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>22916</v>
+        <v>31492</v>
       </c>
       <c r="C19" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>beserta dengan lanjutan teks nya dibawah ini</t>
+          <t>bagi para pecinta demokrasi setujukah bila fakta yang sebenarnya tentang klb abalabal ini diungkap kebenarannya</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['beserta', 'dengan', 'lanjutan', 'teks', 'nya', 'dibawah', 'ini']</t>
+          <t>['bagi', 'para', 'pecinta', 'demokrasi', 'setujukah', 'bila', 'fakta', 'yang', 'sebenarnya', 'tentang', 'klb', 'abalabal', 'ini', 'diungkap', 'kebenarannya']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['bagi', 'para', 'pencinta', 'demokrasi', 'setujukah', 'bila', 'fakta', 'yang', 'sebenarnya', 'tentang', 'klb', 'abalabal', 'ini', 'diungkap', 'kebenarannya']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['beserta', 'lanjutan', 'teks', 'dibawah']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['serta', 'lanjut', 'teks', 'bawah']</t>
+          <t>['pencinta', 'demokrasi', 'setujukah', 'fakta', 'klb', 'abalabal', 'diungkap', 'kebenarannya']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['cinta', 'demokrasi', 'tuju', 'fakta', 'klb', 'abalabal', 'ungkap', 'benar']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>22917</v>
+        <v>31493</v>
       </c>
       <c r="C20" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">hari ini bertempat di taman politik dpp saya menyampaikan pernyataan pers agar pernyataan saya </t>
+          <t>partai demokrat cinta damai tapi lebih cinta keadilan</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['hari', 'ini', 'bertempat', 'di', 'taman', 'politik', 'dpp', 'saya', 'menyampaikan', 'pernyataan', 'pers', 'agar', 'pernyataan', 'saya']</t>
+          <t>['partai', 'demokrat', 'cinta', 'damai', 'tapi', 'lebih', 'cinta', 'keadilan']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
+          <t>['partai', 'demokrat', 'cinta', 'damai', 'tapi', 'lebih', 'cinta', 'keadilan']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['bertempat', 'taman', 'politik', 'dpp', 'pernyataan', 'pers', 'pernyataan']</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['tempat', 'taman', 'politik', 'dpp', 'nyata', 'pers', 'nyata']</t>
+          <t>['partai', 'demokrat', 'cinta', 'damai', 'cinta', 'keadilan']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['partai', 'demokrat', 'cinta', 'damai', 'cinta', 'adil']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>22918</v>
+        <v>31494</v>
       </c>
       <c r="C21" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>sekali lagi selamat ulang tahun ke kepada nahdlatul ulama bersama kita kuat bersatu kita bangkit</t>
+          <t>lanjutan sbb</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['sekali', 'lagi', 'selamat', 'ulang', 'tahun', 'ke', 'kepada', 'nahdlatul', 'ulama', 'bersama', 'kita', 'kuat', 'bersatu', 'kita', 'bangkit']</t>
+          <t>['lanjutan', 'sbb']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['lanjutan', 'sebab']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['selamat', 'ulang', 'nahdlatul', 'ulama', 'kuat', 'bersatu', 'bangkit']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['selamat', 'ulang', 'nahdlatul', 'ulama', 'kuat', 'satu', 'bangkit']</t>
+          <t>['lanjutan']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['lanjut']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>22919</v>
+        <v>31495</v>
       </c>
       <c r="C22" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>saya juga ingin menyampaikan simpati amp bela sungkawa kami atas berpulangnya ratusan kiai amp masyayikh ke rahmatullah</t>
+          <t>kemarin dlm kapasitas sbg ketua umum partai demokrat yang sah saya mengadakan pernyataan pers di kantor dpp</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['saya', 'juga', 'ingin', 'menyampaikan', 'simpati', 'amp', 'bela', 'sungkawa', 'kami', 'atas', 'berpulangnya', 'ratusan', 'kiai', 'amp', 'masyayikh', 'ke', 'rahmatullah']</t>
+          <t>['kemarin', 'dlm', 'kapasitas', 'sbg', 'ketua', 'umum', 'partai', 'demokrat', 'yang', 'sah', 'saya', 'mengadakan', 'pernyataan', 'pers', 'di', 'kantor', 'dpp']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['kemarin', 'dalam', 'kapasitas', 'sebagai', 'ketua', 'umum', 'partai', 'demokrat', 'yang', 'sah', 'saya', 'mengadakan', 'pernyataan', 'pers', 'di', 'kantor', 'dasar, pengenaan, pajak']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['simpati', 'bela', 'sungkawa', 'berpulangnya', 'ratusan', 'kiai', 'masyayikh', 'rahmatullah']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['simpati', 'bela', 'sungkawa', 'pulang', 'ratus', 'kiai', 'masyayikh', 'rahmatullah']</t>
+          <t>['kemarin', 'kapasitas', 'ketua', 'partai', 'demokrat', 'sah', 'mengadakan', 'pernyataan', 'pers', 'kantor', 'dasar, pengenaan, pajak']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['kemarin', 'kapasitas', 'ketua', 'partai', 'demokrat', 'sah', 'ada', 'nyata', 'pers', 'kantor', 'dasar kena pajak']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>22920</v>
+        <v>31496</v>
       </c>
       <c r="C23" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>insya allah partai demokrat akan selalu siap bersinergi dan berkolaborasi dengan nahdlatul ulama untuk menjalanka</t>
+          <t>terima kasih pak saiful mujani mari kita jaga demokrasi dan keadilan di negeri ini</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['insya', 'allah', 'partai', 'demokrat', 'akan', 'selalu', 'siap', 'bersinergi', 'dan', 'berkolaborasi', 'dengan', 'nahdlatul', 'ulama', 'untuk', 'menjalanka']</t>
+          <t>['terima', 'kasih', 'pak', 'saiful', 'mujani', 'mari', 'kita', 'jaga', 'demokrasi', 'dan', 'keadilan', 'di', 'negeri', 'ini']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['terima', 'kasih', 'pak', 'saiful', 'mujani', 'mari', 'kita', 'jaga', 'demokrasi', 'dan', 'keadilan', 'di', 'negeri', 'ini']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['insya', 'allah', 'partai', 'demokrat', 'bersinergi', 'berkolaborasi', 'nahdlatul', 'ulama', 'menjalanka']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['insya', 'allah', 'partai', 'demokrat', 'sinergi', 'kolaborasi', 'nahdlatul', 'ulama', 'menjalanka']</t>
+          <t>['terima', 'kasih', 'saiful', 'mujani', 'mari', 'jaga', 'demokrasi', 'keadilan', 'negeri']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'saiful', 'mujani', 'mari', 'jaga', 'demokrasi', 'adil', 'negeri']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>22921</v>
+        <v>31497</v>
       </c>
       <c r="C24" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>alhamdulillah dlm setiap gerilya nusantara yg saya lakukan saya selalu menyempatkan untuk sowan ke pesantren be</t>
+          <t xml:space="preserve">terima kasih saya ucapkan untuk prof budhi pak wayan pak umar bang ifan mbak vera dan mas steven atas support </t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'dlm', 'setiap', 'gerilya', 'nusantara', 'yg', 'saya', 'lakukan', 'saya', 'selalu', 'menyempatkan', 'untuk', 'sowan', 'ke', 'pesantren', 'be']</t>
+          <t>['terima', 'kasih', 'saya', 'ucapkan', 'untuk', 'prof', 'budhi', 'pak', 'wayan', 'pak', 'umar', 'bang', 'ifan', 'mbak', 'vera', 'dan', 'mas', 'steven', 'atas', 'support']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['terima', 'kasih', 'saya', 'ucapkan', 'untuk', 'prof', 'budhi', 'pak', 'wayan', 'pak', 'umar', 'bang', 'ifan', 'mbak', 'vera', 'dan', 'mas', 'steven', 'atas', 'support']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'dlm', 'gerilya', 'nusantara', 'lakukan', 'menyempatkan', 'sowan', 'pesantren', 'be']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'dlm', 'gerilya', 'nusantara', 'laku', 'sempat', 'sowan', 'pesantren', 'be']</t>
+          <t>['terima', 'kasih', 'ucapkan', 'prof', 'budhi', 'wayan', 'umar', 'bang', 'ifan', 'mbak', 'vera', 'mas', 'steven', 'support']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'ucap', 'prof', 'budhi', 'wayan', 'umar', 'bang', 'ifan', 'mbak', 'vera', 'mas', 'steven', 'support']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>22922</v>
+        <v>31498</v>
       </c>
       <c r="C25" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>karakter keberagamaan nu yg toleran progresif dan moderat wasathiyah sejatinya jg selaras dgn spirit perjuangan</t>
+          <t>para tokoh pendiri pun menegaskan mengecam gerakan gpkpd apalagi klb justru mendukung penuh saya dan temanteman</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['karakter', 'keberagamaan', 'nu', 'yg', 'toleran', 'progresif', 'dan', 'moderat', 'wasathiyah', 'sejatinya', 'jg', 'selaras', 'dgn', 'spirit', 'perjuangan']</t>
+          <t>['para', 'tokoh', 'pendiri', 'pun', 'menegaskan', 'mengecam', 'gerakan', 'gpkpd', 'apalagi', 'klb', 'justru', 'mendukung', 'penuh', 'saya', 'dan', 'temanteman']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['para', 'tokoh', 'pendiri', 'pun', 'menegaskan', 'mengecam', 'gerakan', 'gpkpd', 'apalagi', 'klb', 'justru', 'mendukung', 'penuh', 'saya', 'dan', 'temanteman']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['karakter', 'keberagamaan', 'nu', 'toleran', 'progresif', 'moderat', 'wasathiyah', 'sejatinya', 'jg', 'selaras', 'spirit', 'perjuangan']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['karakter', 'agama', 'nu', 'toleran', 'progresif', 'moderat', 'wasathiyah', 'sejati', 'jg', 'selaras', 'spirit', 'juang']</t>
+          <t>['tokoh', 'pendiri', 'mengecam', 'gerakan', 'gpkpd', 'klb', 'mendukung', 'penuh', 'temanteman']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['tokoh', 'diri', 'kecam', 'gera', 'gpkpd', 'klb', 'dukung', 'penuh', 'temanteman']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>22923</v>
+        <v>31499</v>
       </c>
       <c r="C26" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">saya amp kel besar mengucapkan selamat hari lahir kpd pengurus besar nahdlatul ulama pbnu yang ke </t>
+          <t>dalam diskusi saya mendengar lgsg dr para tokoh tsb bahwa klaim yg disampaikan oknum tsb tdk benar pak sby adl</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['saya', 'amp', 'kel', 'besar', 'mengucapkan', 'selamat', 'hari', 'lahir', 'kpd', 'pengurus', 'besar', 'nahdlatul', 'ulama', 'pbnu', 'yang', 'ke']</t>
+          <t>['dalam', 'diskusi', 'saya', 'mendengar', 'lgsg', 'dr', 'para', 'tokoh', 'tsb', 'bahwa', 'klaim', 'yg', 'disampaikan', 'oknum', 'tsb', 'tdk', 'benar', 'pak', 'sby', 'adl']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['dalam', 'diskusi', 'saya', 'mendengar', 'langsung', 'dari', 'para', 'tokoh', 'tersebut', 'bahwa', 'klaim', 'yang', 'disampaikan', 'oknum', 'tersebut', 'tidak', 'benar', 'pak', 'susilo, bambang, yudhoyono', 'adalah']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['kel', 'selamat', 'lahir', 'kpd', 'pengurus', 'nahdlatul', 'ulama', 'pbnu']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['kel', 'selamat', 'lahir', 'kpd', 'urus', 'nahdlatul', 'ulama', 'pbnu']</t>
+          <t>['diskusi', 'mendengar', 'langsung', 'tokoh', 'klaim', 'oknum', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['diskusi', 'dengar', 'langsung', 'tokoh', 'klaim', 'oknum', 'susilo bambang yudhoyono']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>22924</v>
+        <v>31500</v>
       </c>
       <c r="C27" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">profesionalitas dan integritas polri adalah fondasi penting bagi hadirnya indonesia yang aman dan damai adil dan </t>
+          <t>pertemuan ini adl inisiatif kami bersama utk merespon gaduhnya pemberitaan akibat oknum yang mengakungaku sbg pen</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['profesionalitas', 'dan', 'integritas', 'polri', 'adalah', 'fondasi', 'penting', 'bagi', 'hadirnya', 'indonesia', 'yang', 'aman', 'dan', 'damai', 'adil', 'dan']</t>
+          <t>['pertemuan', 'ini', 'adl', 'inisiatif', 'kami', 'bersama', 'utk', 'merespon', 'gaduhnya', 'pemberitaan', 'akibat', 'oknum', 'yang', 'mengakungaku', 'sbg', 'pen']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['pertemuan', 'ini', 'adalah', 'inisiatif', 'kami', 'bersama', 'untuk', 'menjawab', 'gaduhnya', 'pemberitaan', 'akibat', 'oknum', 'yang', 'mengakungaku', 'sebagai', 'ingin']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['profesionalitas', 'integritas', 'polri', 'fondasi', 'hadirnya', 'indonesia', 'aman', 'damai', 'adil']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['profesionalitas', 'integritas', 'polri', 'fondasi', 'hadir', 'indonesia', 'aman', 'damai', 'adil']</t>
+          <t>['pertemuan', 'inisiatif', 'gaduhnya', 'pemberitaan', 'akibat', 'oknum', 'mengakungaku']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['temu', 'inisiatif', 'gaduh', 'berita', 'akibat', 'oknum', 'mengakungaku']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>22925</v>
+        <v>31501</v>
       </c>
       <c r="C28" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>kita semua berharap agar polri mampu berdiri di atas semua kelompok golongan dan kepentingan jangan tajam ke ba</t>
+          <t>pertemuan ini adl inisiatif kami bersama utk merespon gaduhnya pemberitaan akibat oknum yg mengakungaku sbg pendi</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['kita', 'semua', 'berharap', 'agar', 'polri', 'mampu', 'berdiri', 'di', 'atas', 'semua', 'kelompok', 'golongan', 'dan', 'kepentingan', 'jangan', 'tajam', 'ke', 'ba']</t>
+          <t>['pertemuan', 'ini', 'adl', 'inisiatif', 'kami', 'bersama', 'utk', 'merespon', 'gaduhnya', 'pemberitaan', 'akibat', 'oknum', 'yg', 'mengakungaku', 'sbg', 'pendi']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['pertemuan', 'ini', 'adalah', 'inisiatif', 'kami', 'bersama', 'untuk', 'menjawab', 'gaduhnya', 'pemberitaan', 'akibat', 'oknum', 'yang', 'mengakungaku', 'sebagai', 'pendi']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['berharap', 'polri', 'berdiri', 'kelompok', 'golongan', 'kepentingan', 'tajam', 'ba']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['harap', 'polri', 'diri', 'kelompok', 'golong', 'penting', 'tajam', 'ba']</t>
+          <t>['pertemuan', 'inisiatif', 'gaduhnya', 'pemberitaan', 'akibat', 'oknum', 'mengakungaku', 'pendi']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['temu', 'inisiatif', 'gaduh', 'berita', 'akibat', 'oknum', 'mengakungaku', 'pendi']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>22926</v>
+        <v>31502</v>
       </c>
       <c r="C29" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>pada intinya masyarakat berharap kapolri yang baru dapat terus berikhtiar untuk menghadirkan keadilan bagi seluruh</t>
+          <t>kemarin saya didampingi sekjen partai demokrat bersilaturahmi dgn tokoh pendiri ada prof subur budhis</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['pada', 'intinya', 'masyarakat', 'berharap', 'kapolri', 'yang', 'baru', 'dapat', 'terus', 'berikhtiar', 'untuk', 'menghadirkan', 'keadilan', 'bagi', 'seluruh']</t>
+          <t>['kemarin', 'saya', 'didampingi', 'sekjen', 'partai', 'demokrat', 'bersilaturahmi', 'dgn', 'tokoh', 'pendiri', 'ada', 'prof', 'subur', 'budhis']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['kemarin', 'saya', 'didampingi', 'sekretariat, jenderal', 'partai', 'demokrat', 'bersilaturahmi', 'dengan', 'tokoh', 'pendiri', 'ada', 'prof', 'subur', 'budhis']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['intinya', 'masyarakat', 'berharap', 'kapolri', 'berikhtiar', 'menghadirkan', 'keadilan']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['inti', 'masyarakat', 'harap', 'kapolri', 'ikhtiar', 'hadir', 'adil']</t>
+          <t>['kemarin', 'didampingi', 'sekretariat, jenderal', 'partai', 'demokrat', 'bersilaturahmi', 'tokoh', 'pendiri', 'prof', 'subur', 'budhis']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['kemarin', 'damping', 'sekretariat jenderal', 'partai', 'demokrat', 'silaturahmi', 'tokoh', 'diri', 'prof', 'subur', 'budhis']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>22927</v>
+        <v>31503</v>
       </c>
       <c r="C30" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>artikel saya berjudul harapan bagi kapolri untuk semua dimuat di hari ini dalam artikel ini</t>
+          <t>terimakasih pak santoso lanjutkan</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['artikel', 'saya', 'berjudul', 'harapan', 'bagi', 'kapolri', 'untuk', 'semua', 'dimuat', 'di', 'hari', 'ini', 'dalam', 'artikel', 'ini']</t>
+          <t>['terimakasih', 'pak', 'santoso', 'lanjutkan']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['terima, kasih', 'pak', 'santoso', 'lanjutkan']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['artikel', 'berjudul', 'harapan', 'kapolri', 'dimuat', 'artikel']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['artikel', 'judul', 'harap', 'kapolri', 'muat', 'artikel']</t>
+          <t>['terima, kasih', 'santoso', 'lanjutkan']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'santoso', 'lanjut']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>22928</v>
+        <v>31504</v>
       </c>
       <c r="C31" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>kita berduka atas gugurnya para pahlawan kesehatan kita dgn tingginya angka covid kapasitas rumah sakit yg ham</t>
+          <t>teman di dki jakarta yang saat ini terdampak banjir tetap semangat semoga banjir segera surut amp tidak menelan ko</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['kita', 'berduka', 'atas', 'gugurnya', 'para', 'pahlawan', 'kesehatan', 'kita', 'dgn', 'tingginya', 'angka', 'covid', 'kapasitas', 'rumah', 'sakit', 'yg', 'ham']</t>
+          <t>['teman', 'di', 'dki', 'jakarta', 'yang', 'saat', 'ini', 'terdampak', 'banjir', 'tetap', 'semangat', 'semoga', 'banjir', 'segera', 'surut', 'amp', 'tidak', 'menelan', 'ko']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['teman', 'di', 'daerah, khusus, ibukota', 'jakarta', 'yang', 'saat', 'ini', 'terdampak', 'banjir', 'tetap', 'semangat', 'semoga', 'banjir', 'segera', 'surut', 'amp', 'tidak', 'menelan', 'kok']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['berduka', 'gugurnya', 'pahlawan', 'kesehatan', 'tingginya', 'angka', 'covid', 'kapasitas', 'rumah', 'sakit', 'ham']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['duka', 'gugur', 'pahlawan', 'sehat', 'tinggi', 'angka', 'covid', 'kapasitas', 'rumah', 'sakit', 'ham']</t>
+          <t>['teman', 'daerah, khusus, ibukota', 'jakarta', 'terdampak', 'banjir', 'semangat', 'semoga', 'banjir', 'surut', 'menelan']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['teman', 'daerah khusus ibukota', 'jakarta', 'dampak', 'banjir', 'semangat', 'moga', 'banjir', 'surut', 'tel']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>22929</v>
+        <v>31505</v>
       </c>
       <c r="C32" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>inna lillahi wa inna ilaihi rajiun turut berduka cita atas berpulangnya jenderal tni purn wismoyo arismunandar</t>
+          <t xml:space="preserve">innalillahi wa inna ilaihi rajiun turut berduka cita atas wafatnya letjen purn prof dr  syarifuddin tippe </t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'turut', 'berduka', 'cita', 'atas', 'berpulangnya', 'jenderal', 'tni', 'purn', 'wismoyo', 'arismunandar']</t>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'turut', 'berduka', 'cita', 'atas', 'wafatnya', 'letjen', 'purn', 'prof', 'dr', 'syarifuddin', 'tippe']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'turut', 'berduka', 'cita', 'atas', 'wafatnya', 'letnan, jenderal', 'purna', 'prof', 'dari', 'syarifuddin', 'tippe']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'berduka', 'cita', 'berpulangnya', 'jenderal', 'tni', 'purn', 'wismoyo', 'arismunandar']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'duka', 'cita', 'pulang', 'jenderal', 'tni', 'purn', 'wismoyo', 'arismunandar']</t>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'berduka', 'cita', 'wafatnya', 'letnan, jenderal', 'purna', 'prof', 'syarifuddin', 'tippe']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'duka', 'cita', 'wafat', 'letnan jenderal', 'purna', 'prof', 'syarifuddin', 'tippe']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>22930</v>
+        <v>31506</v>
       </c>
       <c r="C33" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>innalillahi wa inna ilaihi rojiun turut berduka cita atas wafatnya  ihwan datu adam anggota komisi vii dprri</t>
+          <t>mari bersamasama kita jaga dan rawat nilainilai demokrasi indonesia melalui sajian informasi publik yang menjunju</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'turut', 'berduka', 'cita', 'atas', 'wafatnya', 'ihwan', 'datu', 'adam', 'anggota', 'komisi', 'vii', 'dprri']</t>
+          <t>['mari', 'bersamasama', 'kita', 'jaga', 'dan', 'rawat', 'nilainilai', 'demokrasi', 'indonesia', 'melalui', 'sajian', 'informasi', 'publik', 'yang', 'menjunju']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['mari', 'bersamasama', 'kita', 'jaga', 'dan', 'rawat', 'nilainilai', 'demokrasi', 'indonesia', 'melalui', 'sajian', 'informasi', 'publik', 'yang', 'menjunju']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'berduka', 'cita', 'wafatnya', 'ihwan', 'datu', 'adam', 'anggota', 'komisi', 'vii', 'dprri']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'duka', 'cita', 'wafat', 'ihwan', 'datu', 'adam', 'anggota', 'komisi', 'vii', 'dprri']</t>
+          <t>['mari', 'bersamasama', 'jaga', 'rawat', 'nilainilai', 'demokrasi', 'indonesia', 'sajian', 'informasi', 'publik', 'menjunju']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['mari', 'bersamasama', 'jaga', 'rawat', 'nilainilai', 'demokrasi', 'indonesia', 'saji', 'informasi', 'publik', 'menjunju']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>22931</v>
+        <v>31507</v>
       </c>
       <c r="C34" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>innalillahi wa inna ilaihi rojiun turut berduka cita atas wafatnya ir  arif darmawan ketua dpc ko</t>
+          <t xml:space="preserve">masyarakat makin membutuhkan informasi yang bisa dipercaya tajam dan berpihak pada kepentingan rakyat pers yang </t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'turut', 'berduka', 'cita', 'atas', 'wafatnya', 'ir', 'arif', 'darmawan', 'ketua', 'dpc', 'ko']</t>
+          <t>['masyarakat', 'makin', 'membutuhkan', 'informasi', 'yang', 'bisa', 'dipercaya', 'tajam', 'dan', 'berpihak', 'pada', 'kepentingan', 'rakyat', 'pers', 'yang']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['masyarakat', 'makin', 'membutuhkan', 'informasi', 'yang', 'bisa', 'dipercaya', 'tajam', 'dan', 'berpihak', 'pada', 'kepentingan', 'rakyat', 'pers', 'yang']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'berduka', 'cita', 'wafatnya', 'ir', 'arif', 'darmawan', 'ketua', 'dpc', 'ko']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'duka', 'cita', 'wafat', 'ir', 'arif', 'darmawan', 'ketua', 'dpc', 'ko']</t>
+          <t>['masyarakat', 'membutuhkan', 'informasi', 'dipercaya', 'tajam', 'berpihak', 'kepentingan', 'rakyat', 'pers']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['masyarakat', 'butuh', 'informasi', 'percaya', 'tajam', 'pihak', 'penting', 'rakyat', 'pers']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>22932</v>
+        <v>31508</v>
       </c>
       <c r="C35" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>terima kasih kawankawan lanjutkan</t>
+          <t>selamat hari pers nasional untuk kawankawan insan pers dari aceh hingga papua di tengah tsunami informasi seperti</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'kawankawan', 'lanjutkan']</t>
+          <t>['selamat', 'hari', 'pers', 'nasional', 'untuk', 'kawankawan', 'insan', 'pers', 'dari', 'aceh', 'hingga', 'papua', 'di', 'tengah', 'tsunami', 'informasi', 'seperti']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['selamat', 'hari', 'pers', 'nasional', 'untuk', 'kawankawan', 'insan', 'pers', 'dari', 'aceh', 'hingga', 'papua', 'di', 'tengah', 'tsunami', 'informasi', 'seperti']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'kawankawan', 'lanjutkan']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'kawankawan', 'lanjut']</t>
+          <t>['selamat', 'pers', 'nasional', 'kawankawan', 'insan', 'pers', 'aceh', 'papua', 'tsunami', 'informasi']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['selamat', 'pers', 'nasional', 'kawankawan', 'insan', 'pers', 'aceh', 'papua', 'tsunami', 'informasi']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>22933</v>
+        <v>31509</v>
       </c>
       <c r="C36" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>khusus untuk indonesia kita pun berharap hubungan bilateral dan kemitraan strategis antara indonesia dan as akan</t>
+          <t>selamat ulang tahun yang pertama untuk jaringan media siber indonesia semoga selalu terdepan memberikan info</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['khusus', 'untuk', 'indonesia', 'kita', 'pun', 'berharap', 'hubungan', 'bilateral', 'dan', 'kemitraan', 'strategis', 'antara', 'indonesia', 'dan', 'as', 'akan']</t>
+          <t>['selamat', 'ulang', 'tahun', 'yang', 'pertama', 'untuk', 'jaringan', 'media', 'siber', 'indonesia', 'semoga', 'selalu', 'terdepan', 'memberikan', 'info']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['selamat', 'ulang', 'tahun', 'yang', 'pertama', 'untuk', 'jaringan', 'media', 'siber', 'indonesia', 'semoga', 'selalu', 'terdepan', 'memberikan', 'info']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['khusus', 'indonesia', 'berharap', 'hubungan', 'bilateral', 'kemitraan', 'strategis', 'indonesia', 'as']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['khusus', 'indonesia', 'harap', 'hubung', 'bilateral', 'mitra', 'strategis', 'indonesia', 'as']</t>
+          <t>['selamat', 'ulang', 'jaringan', 'media', 'siber', 'indonesia', 'semoga', 'terdepan', 'info']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['selamat', 'ulang', 'jaring', 'media', 'siber', 'indonesia', 'moga', 'depan', 'info']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>22934</v>
+        <v>31510</v>
       </c>
       <c r="C37" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>kita semua berharap kepemimpinan biden di as akan mampu menjadi salah satu pendorong yang lebih kuat bagi negaran</t>
+          <t>allahummaghfirlahu warhamhu wa afihi wafu anhu selamat jalan prof fiz semoga allah swt menerima amal ibadahmu</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['kita', 'semua', 'berharap', 'kepemimpinan', 'biden', 'di', 'as', 'akan', 'mampu', 'menjadi', 'salah', 'satu', 'pendorong', 'yang', 'lebih', 'kuat', 'bagi', 'negaran']</t>
+          <t>['allahummaghfirlahu', 'warhamhu', 'wa', 'afihi', 'wafu', 'anhu', 'selamat', 'jalan', 'prof', 'fiz', 'semoga', 'allah', 'swt', 'menerima', 'amal', 'ibadahmu']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['allahummaghfirlahu', 'warhamhu', 'wa', 'afihi', 'wafu', 'anhu', 'selamat', 'jalan', 'prof', 'fiz', 'semoga', 'allah', 'subhanahu, wa, taala', 'menerima', 'amal', 'ibadahmu']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['berharap', 'kepemimpinan', 'biden', 'as', 'salah', 'pendorong', 'kuat', 'negaran']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['harap', 'pimpin', 'biden', 'as', 'salah', 'dorong', 'kuat', 'negaran']</t>
+          <t>['allahummaghfirlahu', 'warhamhu', 'wa', 'afihi', 'wafu', 'anhu', 'selamat', 'jalan', 'prof', 'fiz', 'semoga', 'allah', 'subhanahu, wa, taala', 'menerima', 'amal', 'ibadahmu']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['allahummaghfirlahu', 'warhamhu', 'wa', 'afihi', 'wafu', 'anhu', 'selamat', 'jalan', 'prof', 'fiz', 'moga', 'allah', 'subhanahu wa taala', 'terima', 'amal', 'ibadah']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>22935</v>
+        <v>31511</v>
       </c>
       <c r="C38" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">banyak yang meyakini kepemimpinan biden ini akan berdampak signifikan terhadap perubahan tatanan ekonomipolitik </t>
+          <t>masih lekat dlm ingatan diskusi dgn beliau di forum seminar the yudhoyono institute di cikeas november lalu</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['banyak', 'yang', 'meyakini', 'kepemimpinan', 'biden', 'ini', 'akan', 'berdampak', 'signifikan', 'terhadap', 'perubahan', 'tatanan', 'ekonomipolitik']</t>
+          <t>['masih', 'lekat', 'dlm', 'ingatan', 'diskusi', 'dgn', 'beliau', 'di', 'forum', 'seminar', 'the', 'yudhoyono', 'institute', 'di', 'cikeas', 'november', 'lalu']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['masih', 'lekat', 'dalam', 'ingatan', 'diskusi', 'dengan', 'beliau', 'di', 'forum', 'seminar', 'the', 'yudhoyono', 'institute', 'di', 'cikeas', 'november', 'lalu']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['kepemimpinan', 'biden', 'berdampak', 'signifikan', 'perubahan', 'tatanan', 'ekonomipolitik']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['pimpin', 'biden', 'dampak', 'signifikan', 'ubah', 'tatanan', 'ekonomipolitik']</t>
+          <t>['lekat', 'ingatan', 'diskusi', 'beliau', 'forum', 'seminar', 'the', 'yudhoyono', 'institute', 'cikeas', 'november']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['lekat', 'ingat', 'diskusi', 'beliau', 'forum', 'seminar', 'the', 'yudhoyono', 'institute', 'cikeas', 'november']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1997,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>22936</v>
+        <v>31512</v>
       </c>
       <c r="C39" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>artikel saya berjudul joe biden amp tatanan dunia baru hari ini dimuat di edisi rabu januari</t>
+          <t xml:space="preserve">saya mengenal alm sejak kiprah beliau sbg dekan termuda di universitas indonesia amp ikut membantu bpk sby sbg staf </t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['artikel', 'saya', 'berjudul', 'joe', 'biden', 'amp', 'tatanan', 'dunia', 'baru', 'hari', 'ini', 'dimuat', 'di', 'edisi', 'rabu', 'januari']</t>
+          <t>['saya', 'mengenal', 'alm', 'sejak', 'kiprah', 'beliau', 'sbg', 'dekan', 'termuda', 'di', 'universitas', 'indonesia', 'amp', 'ikut', 'membantu', 'bpk', 'sby', 'sbg', 'staf']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['saya', 'mengenal', 'almarhum', 'sejak', 'kiprah', 'beliau', 'sebagai', 'dekan', 'termuda', 'di', 'universitas', 'indonesia', 'amp', 'ikut', 'membantu', 'bapak', 'susilo, bambang, yudhoyono', 'sebagai', 'staf']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['artikel', 'berjudul', 'joe', 'biden', 'tatanan', 'dunia', 'dimuat', 'edisi', 'rabu', 'januari']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['artikel', 'judul', 'joe', 'biden', 'tatanan', 'dunia', 'muat', 'edisi', 'rabu', 'januari']</t>
+          <t>['mengenal', 'almarhum', 'kiprah', 'beliau', 'dekan', 'termuda', 'universitas', 'indonesia', 'membantu', 'susilo, bambang, yudhoyono', 'staf']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['kenal', 'almarhum', 'kiprah', 'beliau', 'dekan', 'muda', 'universitas', 'indonesia', 'bantu', 'susilo bambang yudhoyono', 'staf']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2038,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>22937</v>
+        <v>31513</v>
       </c>
       <c r="C40" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ke depan besar harapan saya agar semakin banyak bermunculan forumforum baik seperti ini karena sinergi kolabora</t>
+          <t>inna lillahi wa inna ilaihi rajiun hari ini kita kembali berduka telah berpulang ke rahmatullah prof firmanzah</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['ke', 'depan', 'besar', 'harapan', 'saya', 'agar', 'semakin', 'banyak', 'bermunculan', 'forumforum', 'baik', 'seperti', 'ini', 'karena', 'sinergi', 'kolabora']</t>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'hari', 'ini', 'kita', 'kembali', 'berduka', 'telah', 'berpulang', 'ke', 'rahmatullah', 'prof', 'firmanzah']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'hari', 'ini', 'kita', 'kembali', 'berduka', 'telah', 'berpulang', 'ke', 'rahmatullah', 'prof', 'firmanzah']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['harapan', 'bermunculan', 'forumforum', 'sinergi', 'kolabora']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['harap', 'muncul', 'forumforum', 'sinergi', 'kolabora']</t>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'berduka', 'berpulang', 'rahmatullah', 'prof', 'firmanzah']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'duka', 'pulang', 'rahmatullah', 'prof', 'firmanzah']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2079,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>22938</v>
+        <v>31514</v>
       </c>
       <c r="C41" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>dalam penyampaian tadi saya menyampaikan bahwa anak muda dalam menghadapi tantangan di tengah pandemi haruslah ber</t>
+          <t>beserta dengan lanjutan teks nya dibawah ini</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['dalam', 'penyampaian', 'tadi', 'saya', 'menyampaikan', 'bahwa', 'anak', 'muda', 'dalam', 'menghadapi', 'tantangan', 'di', 'tengah', 'pandemi', 'haruslah', 'ber']</t>
+          <t>['beserta', 'dengan', 'lanjutan', 'teks', 'nya', 'dibawah', 'ini']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['beserta', 'dengan', 'lanjutan', 'teks', 'nya', 'di, bawah', 'ini']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['penyampaian', 'anak', 'muda', 'menghadapi', 'tantangan', 'pandemi', 'ber']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['sampai', 'anak', 'muda', 'hadap', 'tantang', 'pandemi', 'ber']</t>
+          <t>['beserta', 'lanjutan', 'teks', 'di, bawah']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['serta', 'lanjut', 'teks', 'di bawah']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2120,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>22939</v>
+        <v>31515</v>
       </c>
       <c r="C42" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>pagi tadi sebagai ketua umum saya menghadiri webinar yang diinisiasi oleh temanteman dari iri interna</t>
+          <t xml:space="preserve">hari ini bertempat di taman politik dpp saya menyampaikan pernyataan pers agar pernyataan saya </t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['pagi', 'tadi', 'sebagai', 'ketua', 'umum', 'saya', 'menghadiri', 'webinar', 'yang', 'diinisiasi', 'oleh', 'temanteman', 'dari', 'iri', 'interna']</t>
+          <t>['hari', 'ini', 'bertempat', 'di', 'taman', 'politik', 'dpp', 'saya', 'menyampaikan', 'pernyataan', 'pers', 'agar', 'pernyataan', 'saya']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['hari', 'ini', 'bertempat', 'di', 'taman', 'politik', 'dasar, pengenaan, pajak', 'saya', 'menyampaikan', 'pernyataan', 'pers', 'agar', 'pernyataan', 'saya']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['pagi', 'ketua', 'menghadiri', 'webinar', 'diinisiasi', 'temanteman', 'iri', 'interna']</t>
+          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['pagi', 'ketua', 'hadir', 'webinar', 'inisiasi', 'temanteman', 'iri', 'interna']</t>
+          <t>['bertempat', 'taman', 'politik', 'dasar, pengenaan, pajak', 'pernyataan', 'pers', 'pernyataan']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['tempat', 'taman', 'politik', 'dasar kena pajak', 'nyata', 'pers', 'nyata']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2161,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>22940</v>
+        <v>31516</v>
       </c>
       <c r="C43" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>terakhir saya menyampaikan pada komjen sigit agar kapolri yang baru dapat berdiri di atas semua kelompok golongan</t>
+          <t>sekali lagi selamat ulang tahun ke kepada nahdlatul ulama bersama kita kuat bersatu kita bangkit</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['terakhir', 'saya', 'menyampaikan', 'pada', 'komjen', 'sigit', 'agar', 'kapolri', 'yang', 'baru', 'dapat', 'berdiri', 'di', 'atas', 'semua', 'kelompok', 'golongan']</t>
+          <t>['sekali', 'lagi', 'selamat', 'ulang', 'tahun', 'ke', 'kepada', 'nahdlatul', 'ulama', 'bersama', 'kita', 'kuat', 'bersatu', 'kita', 'bangkit']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['sekali', 'lagi', 'selamat', 'ulang', 'tahun', 'ke', 'kepada', 'nahdlatul', 'ulama', 'bersama', 'kita', 'kuat', 'bersatu', 'kita', 'bangkit']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['komjen', 'sigit', 'kapolri', 'berdiri', 'kelompok', 'golongan']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['komjen', 'sigit', 'kapolri', 'diri', 'kelompok', 'golong']</t>
+          <t>['selamat', 'ulang', 'nahdlatul', 'ulama', 'kuat', 'bersatu', 'bangkit']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['selamat', 'ulang', 'nahdlatul', 'ulama', 'kuat', 'satu', 'bangkit']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2202,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>22941</v>
+        <v>31517</v>
       </c>
       <c r="C44" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>dlm pertemuan tadi sy didampingi sekjen pd bung teuku riefky harsya ketua fraksi pd dpr ri mas edhie baskoro yudh</t>
+          <t>saya juga ingin menyampaikan simpati amp bela sungkawa kami atas berpulangnya ratusan kiai amp masyayikh ke rahmatullah</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['dlm', 'pertemuan', 'tadi', 'sy', 'didampingi', 'sekjen', 'pd', 'bung', 'teuku', 'riefky', 'harsya', 'ketua', 'fraksi', 'pd', 'dpr', 'ri', 'mas', 'edhie', 'baskoro', 'yudh']</t>
+          <t>['saya', 'juga', 'ingin', 'menyampaikan', 'simpati', 'amp', 'bela', 'sungkawa', 'kami', 'atas', 'berpulangnya', 'ratusan', 'kiai', 'amp', 'masyayikh', 'ke', 'rahmatullah']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['saya', 'juga', 'ingin', 'menyampaikan', 'simpati', 'amp', 'bela', 'sungkawa', 'kami', 'atas', 'berpulangnya', 'ratusan', 'kiai', 'amp', 'masyayikh', 'ke', 'rahmatullah']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['dlm', 'pertemuan', 'sy', 'didampingi', 'sekjen', 'pd', 'teuku', 'riefky', 'harsya', 'ketua', 'fraksi', 'pd', 'dpr', 'ri', 'mas', 'edhie', 'baskoro', 'yudh']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['dlm', 'temu', 'sy', 'damping', 'sekjen', 'pd', 'teuku', 'riefky', 'harsya', 'ketua', 'fraksi', 'pd', 'dpr', 'ri', 'mas', 'edhie', 'baskoro', 'yudh']</t>
+          <t>['simpati', 'bela', 'sungkawa', 'berpulangnya', 'ratusan', 'kiai', 'masyayikh', 'rahmatullah']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['simpati', 'bela', 'sungkawa', 'pulang', 'ratus', 'kiai', 'masyayikh', 'rahmatullah']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2243,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>22942</v>
+        <v>31518</v>
       </c>
       <c r="C45" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>selain itu saya berharap agar ke depan polri juga semakin profesional dalam menyelesaikan isuisu terkait intolera</t>
+          <t>insya allah partai demokrat akan selalu siap bersinergi dan berkolaborasi dengan nahdlatul ulama untuk menjalanka</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['selain', 'itu', 'saya', 'berharap', 'agar', 'ke', 'depan', 'polri', 'juga', 'semakin', 'profesional', 'dalam', 'menyelesaikan', 'isuisu', 'terkait', 'intolera']</t>
+          <t>['insya', 'allah', 'partai', 'demokrat', 'akan', 'selalu', 'siap', 'bersinergi', 'dan', 'berkolaborasi', 'dengan', 'nahdlatul', 'ulama', 'untuk', 'menjalanka']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['insya', 'allah', 'partai', 'demokrat', 'akan', 'selalu', 'siap', 'bersinergi', 'dan', 'berkolaborasi', 'dengan', 'nahdlatul', 'ulama', 'untuk', 'menjalanka']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['berharap', 'polri', 'profesional', 'menyelesaikan', 'isuisu', 'terkait', 'intolera']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['harap', 'polri', 'profesional', 'selesai', 'isuisu', 'kait', 'intolera']</t>
+          <t>['insya', 'allah', 'partai', 'demokrat', 'bersinergi', 'berkolaborasi', 'nahdlatul', 'ulama', 'menjalanka']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['insya', 'allah', 'partai', 'demokrat', 'sinergi', 'kolaborasi', 'nahdlatul', 'ulama', 'menjalanka']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2284,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>22943</v>
+        <v>31519</v>
       </c>
       <c r="C46" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>hari ini di kantor dpp saya bersilaturahmi dg komjen pol listyo sigit dlm kesempatan ini saya amp</t>
+          <t>alhamdulillah dlm setiap gerilya nusantara yg saya lakukan saya selalu menyempatkan untuk sowan ke pesantren be</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['hari', 'ini', 'di', 'kantor', 'dpp', 'saya', 'bersilaturahmi', 'dg', 'komjen', 'pol', 'listyo', 'sigit', 'dlm', 'kesempatan', 'ini', 'saya', 'amp']</t>
+          <t>['alhamdulillah', 'dlm', 'setiap', 'gerilya', 'nusantara', 'yg', 'saya', 'lakukan', 'saya', 'selalu', 'menyempatkan', 'untuk', 'sowan', 'ke', 'pesantren', 'be']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['alhamdulillah', 'dalam', 'setiap', 'gerilya', 'nusantara', 'yang', 'saya', 'lakukan', 'saya', 'selalu', 'menyempatkan', 'untuk', 'sowan', 'ke', 'pesantren', 'be']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['kantor', 'dpp', 'bersilaturahmi', 'komjen', 'pol', 'listyo', 'sigit', 'dlm', 'kesempatan']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['kantor', 'dpp', 'silaturahmi', 'komjen', 'pol', 'listyo', 'sigit', 'dlm', 'sempat']</t>
+          <t>['alhamdulillah', 'gerilya', 'nusantara', 'lakukan', 'menyempatkan', 'sowan', 'pesantren', 'be']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['alhamdulillah', 'gerilya', 'nusantara', 'laku', 'sempat', 'sowan', 'pesantren', 'be']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2325,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>22944</v>
+        <v>31520</v>
       </c>
       <c r="C47" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">untuk saudarasaudara di kalsel tetap semangat semoga musibah ini bisa segera teratasi semoga allah swt selalu </t>
+          <t>karakter keberagamaan nu yg toleran progresif dan moderat wasathiyah sejatinya jg selaras dgn spirit perjuangan</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['untuk', 'saudarasaudara', 'di', 'kalsel', 'tetap', 'semangat', 'semoga', 'musibah', 'ini', 'bisa', 'segera', 'teratasi', 'semoga', 'allah', 'swt', 'selalu']</t>
+          <t>['karakter', 'keberagamaan', 'nu', 'yg', 'toleran', 'progresif', 'dan', 'moderat', 'wasathiyah', 'sejatinya', 'jg', 'selaras', 'dgn', 'spirit', 'perjuangan']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['karakter', 'keberagamaan', 'nu', 'yang', 'toleran', 'progresif', 'dan', 'moderat', 'wasathiyah', 'sejatinya', 'juga', 'selaras', 'dengan', 'spirit', 'perjuangan']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['saudarasaudara', 'kalsel', 'semangat', 'semoga', 'musibah', 'teratasi', 'semoga', 'allah', 'swt']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['saudarasaudara', 'kalsel', 'semangat', 'moga', 'musibah', 'atas', 'moga', 'allah', 'swt']</t>
+          <t>['karakter', 'keberagamaan', 'nu', 'toleran', 'progresif', 'moderat', 'wasathiyah', 'sejatinya', 'selaras', 'spirit', 'perjuangan']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['karakter', 'agama', 'nu', 'toleran', 'progresif', 'moderat', 'wasathiyah', 'sejati', 'selaras', 'spirit', 'juang']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2366,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>22945</v>
+        <v>31521</v>
       </c>
       <c r="C48" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>apresiasi kepada kader yang telah bergerak cepat untuk turun ke lapangan membantu masyarakat yang terken</t>
+          <t xml:space="preserve">saya amp kel besar mengucapkan selamat hari lahir kpd pengurus besar nahdlatul ulama pbnu yang ke </t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['apresiasi', 'kepada', 'kader', 'yang', 'telah', 'bergerak', 'cepat', 'untuk', 'turun', 'ke', 'lapangan', 'membantu', 'masyarakat', 'yang', 'terken']</t>
+          <t>['saya', 'amp', 'kel', 'besar', 'mengucapkan', 'selamat', 'hari', 'lahir', 'kpd', 'pengurus', 'besar', 'nahdlatul', 'ulama', 'pbnu', 'yang', 'ke']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['saya', 'amp', 'keluarga', 'besar', 'mengucapkan', 'selamat', 'hari', 'lahir', 'kepada', 'pengurus', 'besar', 'nahdlatul', 'ulama', 'pengurus, besar, nahdlatul, ulama', 'yang', 'ke']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['apresiasi', 'kader', 'bergerak', 'cepat', 'turun', 'lapangan', 'membantu', 'masyarakat', 'terken']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['apresiasi', 'kader', 'gerak', 'cepat', 'turun', 'lapang', 'bantu', 'masyarakat', 'ken']</t>
+          <t>['keluarga', 'selamat', 'lahir', 'pengurus', 'nahdlatul', 'ulama', 'pengurus, besar, nahdlatul, ulama']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['keluarga', 'selamat', 'lahir', 'urus', 'nahdlatul', 'ulama', 'urus besar nahdlatul ulama']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2407,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>22946</v>
+        <v>31522</v>
       </c>
       <c r="C49" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>innalillahi wa inna ilaihi rojiun kita kembali kehilangan ulama besar habib ali bin abdurrahman assegaf hari ini</t>
+          <t xml:space="preserve">profesionalitas dan integritas polri adalah fondasi penting bagi hadirnya indonesia yang aman dan damai adil dan </t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'kita', 'kembali', 'kehilangan', 'ulama', 'besar', 'habib', 'ali', 'bin', 'abdurrahman', 'assegaf', 'hari', 'ini']</t>
+          <t>['profesionalitas', 'dan', 'integritas', 'polri', 'adalah', 'fondasi', 'penting', 'bagi', 'hadirnya', 'indonesia', 'yang', 'aman', 'dan', 'damai', 'adil', 'dan']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['profesionalitas', 'dan', 'integritas', 'kepolisian, republik, indonesia', 'adalah', 'fondasi', 'penting', 'bagi', 'hadirnya', 'indonesia', 'yang', 'aman', 'dan', 'damai', 'adil', 'dan']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'kehilangan', 'ulama', 'habib', 'ali', 'bin', 'abdurrahman', 'assegaf']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'hilang', 'ulama', 'habib', 'ali', 'bin', 'abdurrahman', 'assegaf']</t>
+          <t>['profesionalitas', 'integritas', 'kepolisian, republik, indonesia', 'fondasi', 'hadirnya', 'indonesia', 'aman', 'damai', 'adil']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['profesionalitas', 'integritas', 'polisi republik indonesia', 'fondasi', 'hadir', 'indonesia', 'aman', 'damai', 'adil']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2448,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>22947</v>
+        <v>31523</v>
       </c>
       <c r="C50" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>turut berdukacita atas kejadian gempa bumi di majene sulbar amp banjir di kalimantan selatan di hari jumat yang ba</t>
+          <t>kita semua berharap agar polri mampu berdiri di atas semua kelompok golongan dan kepentingan jangan tajam ke ba</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['turut', 'berdukacita', 'atas', 'kejadian', 'gempa', 'bumi', 'di', 'majene', 'sulbar', 'amp', 'banjir', 'di', 'kalimantan', 'selatan', 'di', 'hari', 'jumat', 'yang', 'ba']</t>
+          <t>['kita', 'semua', 'berharap', 'agar', 'polri', 'mampu', 'berdiri', 'di', 'atas', 'semua', 'kelompok', 'golongan', 'dan', 'kepentingan', 'jangan', 'tajam', 'ke', 'ba']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['kita', 'semua', 'berharap', 'agar', 'kepolisian, republik, indonesia', 'mampu', 'berdiri', 'di', 'atas', 'semua', 'kelompok', 'golongan', 'dan', 'kepentingan', 'jangan', 'tajam', 'ke', 'ba']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['berdukacita', 'kejadian', 'gempa', 'bumi', 'majene', 'sulbar', 'banjir', 'kalimantan', 'selatan', 'jumat', 'ba']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['dukacita', 'jadi', 'gempa', 'bumi', 'majene', 'sulbar', 'banjir', 'kalimantan', 'selatan', 'jumat', 'ba']</t>
+          <t>['berharap', 'kepolisian, republik, indonesia', 'berdiri', 'kelompok', 'golongan', 'kepentingan', 'tajam', 'ba']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['harap', 'polisi republik indonesia', 'diri', 'kelompok', 'golong', 'penting', 'tajam', 'ba']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2489,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>22948</v>
+        <v>31524</v>
       </c>
       <c r="C51" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>innalilahi wa inna ilaihi rojiun saya atas nama pribadi maupun keluarga besar turut berduka cita atas</t>
+          <t>pada intinya masyarakat berharap kapolri yang baru dapat terus berikhtiar untuk menghadirkan keadilan bagi seluruh</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['innalilahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'saya', 'atas', 'nama', 'pribadi', 'maupun', 'keluarga', 'besar', 'turut', 'berduka', 'cita', 'atas']</t>
+          <t>['pada', 'intinya', 'masyarakat', 'berharap', 'kapolri', 'yang', 'baru', 'dapat', 'terus', 'berikhtiar', 'untuk', 'menghadirkan', 'keadilan', 'bagi', 'seluruh']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['pada', 'intinya', 'masyarakat', 'berharap', 'kepala, kepolisian, republik, indonesia', 'yang', 'baru', 'dapat', 'terus', 'berikhtiar', 'untuk', 'menghadirkan', 'keadilan', 'bagi', 'seluruh']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['innalilahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'nama', 'pribadi', 'keluarga', 'berduka', 'cita']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['innalilahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'nama', 'pribadi', 'keluarga', 'duka', 'cita']</t>
+          <t>['intinya', 'masyarakat', 'berharap', 'kepala, kepolisian, republik, indonesia', 'berikhtiar', 'menghadirkan', 'keadilan']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['inti', 'masyarakat', 'harap', 'kepala polisi republik indonesia', 'ikhtiar', 'hadir', 'adil']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2530,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>22949</v>
+        <v>31525</v>
       </c>
       <c r="C52" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>di atas segalanya tetap konsisten menjadi bagian dari solusi menghadapi pandemi covid dan krisis ek</t>
+          <t>artikel saya berjudul harapan bagi kapolri untuk semua dimuat di hari ini dalam artikel ini</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['di', 'atas', 'segalanya', 'tetap', 'konsisten', 'menjadi', 'bagian', 'dari', 'solusi', 'menghadapi', 'pandemi', 'covid', 'dan', 'krisis', 'ek']</t>
+          <t>['artikel', 'saya', 'berjudul', 'harapan', 'bagi', 'kapolri', 'untuk', 'semua', 'dimuat', 'di', 'hari', 'ini', 'dalam', 'artikel', 'ini']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['artikel', 'saya', 'berjudul', 'harapan', 'bagi', 'kepala, kepolisian, republik, indonesia', 'untuk', 'semua', 'dimuat', 'di', 'hari', 'ini', 'dalam', 'artikel', 'ini']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['konsisten', 'solusi', 'menghadapi', 'pandemi', 'covid', 'krisis', 'ek']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['konsisten', 'solusi', 'hadap', 'pandemi', 'covid', 'krisis', 'ek']</t>
+          <t>['artikel', 'berjudul', 'harapan', 'kepala, kepolisian, republik, indonesia', 'dimuat', 'artikel']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['artikel', 'judul', 'harap', 'kepala polisi republik indonesia', 'muat', 'artikel']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2571,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>22950</v>
+        <v>31526</v>
       </c>
       <c r="C53" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>termasuk juga kita patut bersyukur atas pencapaian pilkada kali ini terlebih rupanya pencapaian itu juga diikuti</t>
+          <t>kita berduka atas gugurnya para pahlawan kesehatan kita dgn tingginya angka covid kapasitas rumah sakit yg ham</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['termasuk', 'juga', 'kita', 'patut', 'bersyukur', 'atas', 'pencapaian', 'pilkada', 'kali', 'ini', 'terlebih', 'rupanya', 'pencapaian', 'itu', 'juga', 'diikuti']</t>
+          <t>['kita', 'berduka', 'atas', 'gugurnya', 'para', 'pahlawan', 'kesehatan', 'kita', 'dgn', 'tingginya', 'angka', 'covid', 'kapasitas', 'rumah', 'sakit', 'yg', 'ham']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['kita', 'berduka', 'atas', 'gugurnya', 'para', 'pahlawan', 'kesehatan', 'kita', 'dengan', 'tingginya', 'angka', 'covid', 'kapasitas', 'rumah', 'sakit', 'yang', 'ham']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['patut', 'bersyukur', 'pencapaian', 'pilkada', 'kali', 'pencapaian', 'diikuti']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['patut', 'syukur', 'capai', 'pilkada', 'kali', 'capai', 'ikut']</t>
+          <t>['berduka', 'gugurnya', 'pahlawan', 'kesehatan', 'tingginya', 'angka', 'covid', 'kapasitas', 'rumah', 'sakit', 'ham']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['duka', 'gugur', 'pahlawan', 'sehat', 'tinggi', 'angka', 'covid', 'kapasitas', 'rumah', 'sakit', 'ham']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2612,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>22951</v>
+        <v>31527</v>
       </c>
       <c r="C54" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>telah terbit demokrat newsletter desember dgn tema demokrat berkoalisi dengan rakyat newsletter kali ini me</t>
+          <t>inna lillahi wa inna ilaihi rajiun turut berduka cita atas berpulangnya jenderal tni purn wismoyo arismunandar</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['telah', 'terbit', 'demokrat', 'newsletter', 'desember', 'dgn', 'tema', 'demokrat', 'berkoalisi', 'dengan', 'rakyat', 'newsletter', 'kali', 'ini', 'me']</t>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'turut', 'berduka', 'cita', 'atas', 'berpulangnya', 'jenderal', 'tni', 'purn', 'wismoyo', 'arismunandar']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'turut', 'berduka', 'cita', 'atas', 'berpulangnya', 'jenderal', 'tentara, nasional, indonesia', 'purna', 'wismoyo', 'arismunandar']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['terbit', 'demokrat', 'newsletter', 'desember', 'tema', 'demokrat', 'berkoalisi', 'rakyat', 'newsletter', 'kali', 'me']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['terbit', 'demokrat', 'newsletter', 'desember', 'tema', 'demokrat', 'koalisi', 'rakyat', 'newsletter', 'kali', 'me']</t>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'berduka', 'cita', 'berpulangnya', 'jenderal', 'tentara, nasional, indonesia', 'purna', 'wismoyo', 'arismunandar']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'duka', 'cita', 'pulang', 'jenderal', 'tentara nasional indonesia', 'purna', 'wismoyo', 'arismunandar']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2653,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>22952</v>
+        <v>31528</v>
       </c>
       <c r="C55" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>karena sejatinya efektivitas pendistribusian vaksin akan menjadi ujung tombak bagi kebangkitan indonesia dari pand</t>
+          <t>innalillahi wa inna ilaihi rojiun turut berduka cita atas wafatnya  ihwan datu adam anggota komisi vii dprri</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['karena', 'sejatinya', 'efektivitas', 'pendistribusian', 'vaksin', 'akan', 'menjadi', 'ujung', 'tombak', 'bagi', 'kebangkitan', 'indonesia', 'dari', 'pand']</t>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'turut', 'berduka', 'cita', 'atas', 'wafatnya', 'ihwan', 'datu', 'adam', 'anggota', 'komisi', 'vii', 'dprri']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'turut', 'berduka', 'cita', 'atas', 'wafatnya', 'ihwan', 'datu', 'adam', 'anggota', 'komisi', 'vi', 'dprri']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['sejatinya', 'efektivitas', 'pendistribusian', 'vaksin', 'ujung', 'tombak', 'kebangkitan', 'indonesia', 'pand']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['sejati', 'efektivitas', 'distribusi', 'vaksin', 'ujung', 'tombak', 'bangkit', 'indonesia', 'pand']</t>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'berduka', 'cita', 'wafatnya', 'ihwan', 'datu', 'adam', 'anggota', 'komisi', 'vi', 'dprri']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'duka', 'cita', 'wafat', 'ihwan', 'datu', 'adam', 'anggota', 'komisi', 'vi', 'dprri']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2694,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>22953</v>
+        <v>31529</v>
       </c>
       <c r="C56" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>kita semua berharap bahwa vaksin nantinya akan bisa menjadi game changer dalam ketidakpastian yang kita hadapi be</t>
+          <t>innalillahi wa inna ilaihi rojiun turut berduka cita atas wafatnya ir  arif darmawan ketua dpc ko</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['kita', 'semua', 'berharap', 'bahwa', 'vaksin', 'nantinya', 'akan', 'bisa', 'menjadi', 'game', 'changer', 'dalam', 'ketidakpastian', 'yang', 'kita', 'hadapi', 'be']</t>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'turut', 'berduka', 'cita', 'atas', 'wafatnya', 'ir', 'arif', 'darmawan', 'ketua', 'dpc', 'ko']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'turut', 'berduka', 'cita', 'atas', 'wafatnya', 'insinyur', 'arif', 'darmawan', 'ketua', 'dewan, pimpinan, cabang', 'kok']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['berharap', 'vaksin', 'game', 'changer', 'ketidakpastian', 'hadapi', 'be']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['harap', 'vaksin', 'game', 'changer', 'ketidakpastian', 'hadap', 'be']</t>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'berduka', 'cita', 'wafatnya', 'insinyur', 'arif', 'darmawan', 'ketua', 'dewan, pimpinan, cabang']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'duka', 'cita', 'wafat', 'insinyur', 'arif', 'darmawan', 'ketua', 'dewan pimpin cabang']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2735,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>22954</v>
+        <v>31530</v>
       </c>
       <c r="C57" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>mengawali tahun tulisan saya berjudul vaksin dan optimisme melawan pandemi dimuat di senin</t>
+          <t>terima kasih kawankawan lanjutkan</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['mengawali', 'tahun', 'tulisan', 'saya', 'berjudul', 'vaksin', 'dan', 'optimisme', 'melawan', 'pandemi', 'dimuat', 'di', 'senin']</t>
+          <t>['terima', 'kasih', 'kawankawan', 'lanjutkan']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['terima', 'kasih', 'kawankawan', 'lanjutkan']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['mengawali', 'tulisan', 'berjudul', 'vaksin', 'optimisme', 'melawan', 'pandemi', 'dimuat', 'senin']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['awal', 'tulis', 'judul', 'vaksin', 'optimisme', 'lawan', 'pandemi', 'muat', 'senin']</t>
+          <t>['terima', 'kasih', 'kawankawan', 'lanjutkan']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'kawankawan', 'lanjut']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2776,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>22955</v>
+        <v>31531</v>
       </c>
       <c r="C58" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>atas nama pribadi dan keluarga besar saya mengucapkan selamat hut ke perjuangan semoga sukses</t>
+          <t>khusus untuk indonesia kita pun berharap hubungan bilateral dan kemitraan strategis antara indonesia dan as akan</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['atas', 'nama', 'pribadi', 'dan', 'keluarga', 'besar', 'saya', 'mengucapkan', 'selamat', 'hut', 'ke', 'perjuangan', 'semoga', 'sukses']</t>
+          <t>['khusus', 'untuk', 'indonesia', 'kita', 'pun', 'berharap', 'hubungan', 'bilateral', 'dan', 'kemitraan', 'strategis', 'antara', 'indonesia', 'dan', 'as', 'akan']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['khusus', 'untuk', 'indonesia', 'kita', 'pun', 'berharap', 'hubungan', 'bilateral', 'dan', 'kemitraan', 'strategis', 'antara', 'indonesia', 'dan', 'as', 'akan']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['nama', 'pribadi', 'keluarga', 'selamat', 'hut', 'perjuangan', 'semoga', 'sukses']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['nama', 'pribadi', 'keluarga', 'selamat', 'hut', 'juang', 'moga', 'sukses']</t>
+          <t>['khusus', 'indonesia', 'berharap', 'hubungan', 'bilateral', 'kemitraan', 'strategis', 'indonesia', 'as']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['khusus', 'indonesia', 'harap', 'hubung', 'bilateral', 'mitra', 'strategis', 'indonesia', 'as']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2817,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>22956</v>
+        <v>31532</v>
       </c>
       <c r="C59" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">doa tulus juga kita panjatkan bagi semua bagi keluarga korban semoga allah swt senantiasa memberikan ketabahan amp </t>
+          <t>kita semua berharap kepemimpinan biden di as akan mampu menjadi salah satu pendorong yang lebih kuat bagi negaran</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['doa', 'tulus', 'juga', 'kita', 'panjatkan', 'bagi', 'semua', 'bagi', 'keluarga', 'korban', 'semoga', 'allah', 'swt', 'senantiasa', 'memberikan', 'ketabahan', 'amp']</t>
+          <t>['kita', 'semua', 'berharap', 'kepemimpinan', 'biden', 'di', 'as', 'akan', 'mampu', 'menjadi', 'salah', 'satu', 'pendorong', 'yang', 'lebih', 'kuat', 'bagi', 'negaran']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['kita', 'semua', 'berharap', 'kepemimpinan', 'biden', 'di', 'as', 'akan', 'mampu', 'menjadi', 'salah', 'satu', 'pendorong', 'yang', 'lebih', 'kuat', 'bagi', 'negaran']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['doa', 'tulus', 'panjatkan', 'keluarga', 'korban', 'semoga', 'allah', 'swt', 'senantiasa', 'ketabahan']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['doa', 'tulus', 'panjat', 'keluarga', 'korban', 'moga', 'allah', 'swt', 'senantiasa', 'tabah']</t>
+          <t>['berharap', 'kepemimpinan', 'biden', 'as', 'salah', 'pendorong', 'kuat', 'negaran']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['harap', 'pimpin', 'biden', 'as', 'salah', 'dorong', 'kuat', 'negaran']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2858,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>22957</v>
+        <v>31533</v>
       </c>
       <c r="C60" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>saya atas nama pribadi amp turut berduka atas jatuhnya pesawat sriwijaya air sj di perairan kep ser</t>
+          <t xml:space="preserve">banyak yang meyakini kepemimpinan biden ini akan berdampak signifikan terhadap perubahan tatanan ekonomipolitik </t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['saya', 'atas', 'nama', 'pribadi', 'amp', 'turut', 'berduka', 'atas', 'jatuhnya', 'pesawat', 'sriwijaya', 'air', 'sj', 'di', 'perairan', 'kep', 'ser']</t>
+          <t>['banyak', 'yang', 'meyakini', 'kepemimpinan', 'biden', 'ini', 'akan', 'berdampak', 'signifikan', 'terhadap', 'perubahan', 'tatanan', 'ekonomipolitik']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['banyak', 'yang', 'meyakini', 'kepemimpinan', 'biden', 'ini', 'akan', 'berdampak', 'signifikan', 'terhadap', 'perubahan', 'tatanan', 'ekonomipolitik']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['nama', 'pribadi', 'berduka', 'jatuhnya', 'pesawat', 'sriwijaya', 'air', 'sj', 'perairan', 'kep', 'ser']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['nama', 'pribadi', 'duka', 'jatuh', 'pesawat', 'sriwijaya', 'air', 'sj', 'air', 'kep', 'ser']</t>
+          <t>['kepemimpinan', 'biden', 'berdampak', 'signifikan', 'perubahan', 'tatanan', 'ekonomipolitik']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['pimpin', 'biden', 'dampak', 'signifikan', 'ubah', 'tatanan', 'ekonomipolitik']</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2899,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>22958</v>
+        <v>31534</v>
       </c>
       <c r="C61" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>rt tulisan bapak sby berjudul indonesia tahun peluang untuk sukses ada jangan kita siasiakan selamat membaca klik</t>
+          <t>artikel saya berjudul joe biden amp tatanan dunia baru hari ini dimuat di edisi rabu januari</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['rt', 'tulisan', 'bapak', 'sby', 'berjudul', 'indonesia', 'tahun', 'peluang', 'untuk', 'sukses', 'ada', 'jangan', 'kita', 'siasiakan', 'selamat', 'membaca', 'klik']</t>
+          <t>['artikel', 'saya', 'berjudul', 'joe', 'biden', 'amp', 'tatanan', 'dunia', 'baru', 'hari', 'ini', 'dimuat', 'di', 'edisi', 'rabu', 'januari']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['artikel', 'saya', 'berjudul', 'joe', 'biden', 'amp', 'tatanan', 'dunia', 'baru', 'hari', 'ini', 'dimuat', 'di', 'edisi', 'rabu', 'januari']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['tulisan', 'sby', 'berjudul', 'indonesia', 'peluang', 'sukses', 'siasiakan', 'selamat', 'membaca', 'klik']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['tulis', 'sby', 'judul', 'indonesia', 'peluang', 'sukses', 'siasiakan', 'selamat', 'baca', 'klik']</t>
+          <t>['artikel', 'berjudul', 'joe', 'biden', 'tatanan', 'dunia', 'dimuat', 'edisi', 'rabu', 'januari']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['artikel', 'judul', 'joe', 'biden', 'tatanan', 'dunia', 'muat', 'edisi', 'rabu', 'januari']</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2940,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>22959</v>
+        <v>31535</v>
       </c>
       <c r="C62" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">demo amp kekerasan di capitol hill as adl pengingat ttg pentingnya menjaga demokrasi yg sehat adil amp damai bahkan </t>
+          <t>ke depan besar harapan saya agar semakin banyak bermunculan forumforum baik seperti ini karena sinergi kolabora</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['demo', 'amp', 'kekerasan', 'di', 'capitol', 'hill', 'as', 'adl', 'pengingat', 'ttg', 'pentingnya', 'menjaga', 'demokrasi', 'yg', 'sehat', 'adil', 'amp', 'damai', 'bahkan']</t>
+          <t>['ke', 'depan', 'besar', 'harapan', 'saya', 'agar', 'semakin', 'banyak', 'bermunculan', 'forumforum', 'baik', 'seperti', 'ini', 'karena', 'sinergi', 'kolabora']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['ke', 'depan', 'besar', 'harapan', 'saya', 'agar', 'semakin', 'banyak', 'bermunculan', 'forumforum', 'baik', 'seperti', 'ini', 'karena', 'sinergi', 'kolabora']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['demo', 'kekerasan', 'capitol', 'hill', 'as', 'adl', 'pengingat', 'ttg', 'menjaga', 'demokrasi', 'sehat', 'adil', 'damai']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['demo', 'keras', 'capitol', 'hill', 'as', 'adl', 'ingat', 'ttg', 'jaga', 'demokrasi', 'sehat', 'adil', 'damai']</t>
+          <t>['harapan', 'bermunculan', 'forumforum', 'sinergi', 'kolabora']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['harap', 'muncul', 'forumforum', 'sinergi', 'kolabora']</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2981,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>22960</v>
+        <v>31536</v>
       </c>
       <c r="C63" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>atas nama dan pribadi saya mengucapkan selamat milad ke utk semoga ppp terus konsi</t>
+          <t>dalam penyampaian tadi saya menyampaikan bahwa anak muda dalam menghadapi tantangan di tengah pandemi haruslah ber</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['atas', 'nama', 'dan', 'pribadi', 'saya', 'mengucapkan', 'selamat', 'milad', 'ke', 'utk', 'semoga', 'ppp', 'terus', 'konsi']</t>
+          <t>['dalam', 'penyampaian', 'tadi', 'saya', 'menyampaikan', 'bahwa', 'anak', 'muda', 'dalam', 'menghadapi', 'tantangan', 'di', 'tengah', 'pandemi', 'haruslah', 'ber']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['dalam', 'penyampaian', 'tadi', 'saya', 'menyampaikan', 'bahwa', 'anak', 'muda', 'dalam', 'menghadapi', 'tantangan', 'di', 'tengah', 'pandemi', 'haruslah', 'ber']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['nama', 'pribadi', 'selamat', 'milad', 'semoga', 'ppp', 'konsi']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['nama', 'pribadi', 'selamat', 'milad', 'moga', 'ppp', 'konsi']</t>
+          <t>['penyampaian', 'anak', 'muda', 'menghadapi', 'tantangan', 'pandemi', 'ber']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['sampai', 'anak', 'muda', 'hadap', 'tantang', 'pandemi', 'ber']</t>
         </is>
       </c>
     </row>
@@ -2707,34 +3022,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>22961</v>
+        <v>31537</v>
       </c>
       <c r="C64" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>kita doakan semoga almarhum berdua husnul khotimah diampuni segala dosanya diterima semua kebaikan dan amal ibada</t>
+          <t>pagi tadi sebagai ketua umum saya menghadiri webinar yang diinisiasi oleh temanteman dari iri interna</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['kita', 'doakan', 'semoga', 'almarhum', 'berdua', 'husnul', 'khotimah', 'diampuni', 'segala', 'dosanya', 'diterima', 'semua', 'kebaikan', 'dan', 'amal', 'ibada']</t>
+          <t>['pagi', 'tadi', 'sebagai', 'ketua', 'umum', 'saya', 'menghadiri', 'webinar', 'yang', 'diinisiasi', 'oleh', 'temanteman', 'dari', 'iri', 'interna']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['pagi', 'tadi', 'sebagai', 'ketua', 'umum', 'saya', 'menghadiri', 'webinar', 'yang', 'diinisiasi', 'oleh', 'temanteman', 'dari', 'iri', 'interna']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['doakan', 'semoga', 'almarhum', 'berdua', 'husnul', 'khotimah', 'diampuni', 'dosanya', 'diterima', 'kebaikan', 'amal', 'ibada']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['doa', 'moga', 'almarhum', 'dua', 'husnul', 'khotimah', 'ampun', 'dosa', 'terima', 'baik', 'amal', 'ibada']</t>
+          <t>['pagi', 'ketua', 'menghadiri', 'webinar', 'diinisiasi', 'temanteman', 'iri', 'interna']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['pagi', 'ketua', 'hadir', 'webinar', 'inisiasi', 'temanteman', 'iri', 'interna']</t>
         </is>
       </c>
     </row>
@@ -2743,34 +3063,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>22962</v>
+        <v>31538</v>
       </c>
       <c r="C65" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>terakhir kali saya bersilaturahmi dengan pak bahrum daido dan keluarga ketika saya diminta menjadi saksi nikah putr</t>
+          <t>terakhir saya menyampaikan pada komjen sigit agar kapolri yang baru dapat berdiri di atas semua kelompok golongan</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['terakhir', 'kali', 'saya', 'bersilaturahmi', 'dengan', 'pak', 'bahrum', 'daido', 'dan', 'keluarga', 'ketika', 'saya', 'diminta', 'menjadi', 'saksi', 'nikah', 'putr']</t>
+          <t>['terakhir', 'saya', 'menyampaikan', 'pada', 'komjen', 'sigit', 'agar', 'kapolri', 'yang', 'baru', 'dapat', 'berdiri', 'di', 'atas', 'semua', 'kelompok', 'golongan']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['terakhir', 'saya', 'menyampaikan', 'pada', 'komjen', 'sigit', 'agar', 'kepala, kepolisian, republik, indonesia', 'yang', 'baru', 'dapat', 'berdiri', 'di', 'atas', 'semua', 'kelompok', 'golongan']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['kali', 'bersilaturahmi', 'bahrum', 'daido', 'keluarga', 'saksi', 'nikah', 'putr']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['kali', 'silaturahmi', 'bahrum', 'daido', 'keluarga', 'saksi', 'nikah', 'putr']</t>
+          <t>['komjen', 'sigit', 'kepala, kepolisian, republik, indonesia', 'berdiri', 'kelompok', 'golongan']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['komjen', 'sigit', 'kepala polisi republik indonesia', 'diri', 'kelompok', 'golong']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3104,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>22963</v>
+        <v>31539</v>
       </c>
       <c r="C66" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>saya beserta keluarga turut berduka cita yang sedalamdalamnya atas wafatnya beliau berdua rasanya tidak percaya</t>
+          <t>dlm pertemuan tadi sy didampingi sekjen pd bung teuku riefky harsya ketua fraksi pd dpr ri mas edhie baskoro yudh</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['saya', 'beserta', 'keluarga', 'turut', 'berduka', 'cita', 'yang', 'sedalamdalamnya', 'atas', 'wafatnya', 'beliau', 'berdua', 'rasanya', 'tidak', 'percaya']</t>
+          <t>['dlm', 'pertemuan', 'tadi', 'sy', 'didampingi', 'sekjen', 'pd', 'bung', 'teuku', 'riefky', 'harsya', 'ketua', 'fraksi', 'pd', 'dpr', 'ri', 'mas', 'edhie', 'baskoro', 'yudh']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['dalam', 'pertemuan', 'tadi', 'saya', 'didampingi', 'sekretariat, jenderal', 'pada', 'bung', 'teuku', 'riefky', 'harsya', 'ketua', 'fraksi', 'pada', 'dewan, perwakilan, rakyat', 'ri', 'mas', 'edhie', 'baskoro', 'yudh']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['beserta', 'keluarga', 'berduka', 'cita', 'sedalamdalamnya', 'wafatnya', 'beliau', 'berdua', 'percaya']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['serta', 'keluarga', 'duka', 'cita', 'sedalamdalamnya', 'wafat', 'beliau', 'dua', 'percaya']</t>
+          <t>['pertemuan', 'didampingi', 'sekretariat, jenderal', 'teuku', 'riefky', 'harsya', 'ketua', 'fraksi', 'dewan, perwakilan, rakyat', 'ri', 'mas', 'edhie', 'baskoro', 'yudh']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['temu', 'damping', 'sekretariat jenderal', 'teuku', 'riefky', 'harsya', 'ketua', 'fraksi', 'dewan wakil rakyat', 'ri', 'mas', 'edhie', 'baskoro', 'yudh']</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3145,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>22964</v>
+        <v>31540</v>
       </c>
       <c r="C67" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>hari ini kita kehilangan dua sosok yang sangat dekat dengan kita bapak  mas alex asmasoebrata amp bapak dr ir</t>
+          <t>selain itu saya berharap agar ke depan polri juga semakin profesional dalam menyelesaikan isuisu terkait intolera</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['hari', 'ini', 'kita', 'kehilangan', 'dua', 'sosok', 'yang', 'sangat', 'dekat', 'dengan', 'kita', 'bapak', 'mas', 'alex', 'asmasoebrata', 'amp', 'bapak', 'dr', 'ir']</t>
+          <t>['selain', 'itu', 'saya', 'berharap', 'agar', 'ke', 'depan', 'polri', 'juga', 'semakin', 'profesional', 'dalam', 'menyelesaikan', 'isuisu', 'terkait', 'intolera']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['selain', 'itu', 'saya', 'berharap', 'agar', 'ke', 'depan', 'kepolisian, republik, indonesia', 'juga', 'semakin', 'profesional', 'dalam', 'menyelesaikan', 'isuisu', 'terkait', 'intolera']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['kehilangan', 'sosok', 'mas', 'alex', 'asmasoebrata', 'dr', 'ir']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['hilang', 'sosok', 'mas', 'alex', 'asmasoebrata', 'dr', 'ir']</t>
+          <t>['berharap', 'kepolisian, republik, indonesia', 'profesional', 'menyelesaikan', 'isuisu', 'terkait', 'intolera']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['harap', 'polisi republik indonesia', 'profesional', 'selesai', 'isuisu', 'kait', 'intolera']</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3186,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>22965</v>
+        <v>31541</v>
       </c>
       <c r="C68" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>innalillahi wa inna ilaihi rajiun turut berduka cita atas wafatnya alex asmasoebrata politisi sekaligu</t>
+          <t>hari ini di kantor dpp saya bersilaturahmi dg komjen pol listyo sigit dlm kesempatan ini saya amp</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'turut', 'berduka', 'cita', 'atas', 'wafatnya', 'alex', 'asmasoebrata', 'politisi', 'sekaligu']</t>
+          <t>['hari', 'ini', 'di', 'kantor', 'dpp', 'saya', 'bersilaturahmi', 'dg', 'komjen', 'pol', 'listyo', 'sigit', 'dlm', 'kesempatan', 'ini', 'saya', 'amp']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['hari', 'ini', 'di', 'kantor', 'dasar, pengenaan, pajak', 'saya', 'bersilaturahmi', 'dengan', 'komjen', 'pol', 'listyo', 'sigit', 'dalam', 'kesempatan', 'ini', 'saya', 'amp']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'berduka', 'cita', 'wafatnya', 'alex', 'asmasoebrata', 'politisi', 'sekaligu']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'duka', 'cita', 'wafat', 'alex', 'asmasoebrata', 'politis', 'sekaligu']</t>
+          <t>['kantor', 'dasar, pengenaan, pajak', 'bersilaturahmi', 'komjen', 'pol', 'listyo', 'sigit', 'kesempatan']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['kantor', 'dasar kena pajak', 'silaturahmi', 'komjen', 'pol', 'listyo', 'sigit', 'sempat']</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3227,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>22966</v>
+        <v>31542</v>
       </c>
       <c r="C69" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>akhirnya atas nama pribadi dan keluarga saya mengucapkan selamat tahun baru terima kasih dan selamat tinggal</t>
+          <t xml:space="preserve">untuk saudarasaudara di kalsel tetap semangat semoga musibah ini bisa segera teratasi semoga allah swt selalu </t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['akhirnya', 'atas', 'nama', 'pribadi', 'dan', 'keluarga', 'saya', 'mengucapkan', 'selamat', 'tahun', 'baru', 'terima', 'kasih', 'dan', 'selamat', 'tinggal']</t>
+          <t>['untuk', 'saudarasaudara', 'di', 'kalsel', 'tetap', 'semangat', 'semoga', 'musibah', 'ini', 'bisa', 'segera', 'teratasi', 'semoga', 'allah', 'swt', 'selalu']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['untuk', 'saudarasaudara', 'di', 'kalsel', 'tetap', 'semangat', 'semoga', 'musibah', 'ini', 'bisa', 'segera', 'teratasi', 'semoga', 'allah', 'subhanahu, wa, taala', 'selalu']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['nama', 'pribadi', 'keluarga', 'selamat', 'terima', 'kasih', 'selamat', 'tinggal']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['nama', 'pribadi', 'keluarga', 'selamat', 'terima', 'kasih', 'selamat', 'tinggal']</t>
+          <t>['saudarasaudara', 'kalsel', 'semangat', 'semoga', 'musibah', 'teratasi', 'semoga', 'allah', 'subhanahu, wa, taala']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['saudarasaudara', 'kalsel', 'semangat', 'moga', 'musibah', 'atas', 'moga', 'allah', 'subhanahu wa taala']</t>
         </is>
       </c>
     </row>
@@ -2923,34 +3268,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>22967</v>
+        <v>31543</v>
       </c>
       <c r="C70" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>insya allah sy akan trs perbaiki diri amp berupaya yg terbaik dlm menjalankan kepemimpinan partai yg efektif mewuju</t>
+          <t>apresiasi kepada kader yang telah bergerak cepat untuk turun ke lapangan membantu masyarakat yang terken</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['insya', 'allah', 'sy', 'akan', 'trs', 'perbaiki', 'diri', 'amp', 'berupaya', 'yg', 'terbaik', 'dlm', 'menjalankan', 'kepemimpinan', 'partai', 'yg', 'efektif', 'mewuju']</t>
+          <t>['apresiasi', 'kepada', 'kader', 'yang', 'telah', 'bergerak', 'cepat', 'untuk', 'turun', 'ke', 'lapangan', 'membantu', 'masyarakat', 'yang', 'terken']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['apresiasi', 'kepada', 'kader', 'yang', 'telah', 'bergerak', 'cepat', 'untuk', 'turun', 'ke', 'lapangan', 'membantu', 'masyarakat', 'yang', 'terken']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['insya', 'allah', 'sy', 'trs', 'perbaiki', 'berupaya', 'terbaik', 'dlm', 'menjalankan', 'kepemimpinan', 'partai', 'efektif', 'mewuju']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['insya', 'allah', 'sy', 'trs', 'baik', 'upaya', 'baik', 'dlm', 'jalan', 'pimpin', 'partai', 'efektif', 'mewuju']</t>
+          <t>['apresiasi', 'kader', 'bergerak', 'cepat', 'turun', 'lapangan', 'membantu', 'masyarakat', 'terken']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['apresiasi', 'kader', 'gerak', 'cepat', 'turun', 'lapang', 'bantu', 'masyarakat', 'ken']</t>
         </is>
       </c>
     </row>
@@ -2959,34 +3309,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>22968</v>
+        <v>31544</v>
       </c>
       <c r="C71" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>mohon maaf lahir dan batin jika ada kekurangan dan kesalahan baik dalam tutur kata sikap dan perilaku maupun kep</t>
+          <t>innalillahi wa inna ilaihi rojiun kita kembali kehilangan ulama besar habib ali bin abdurrahman assegaf hari ini</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['mohon', 'maaf', 'lahir', 'dan', 'batin', 'jika', 'ada', 'kekurangan', 'dan', 'kesalahan', 'baik', 'dalam', 'tutur', 'kata', 'sikap', 'dan', 'perilaku', 'maupun', 'kep']</t>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'kita', 'kembali', 'kehilangan', 'ulama', 'besar', 'habib', 'ali', 'bin', 'abdurrahman', 'assegaf', 'hari', 'ini']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'kita', 'kembali', 'kehilangan', 'ulama', 'besar', 'habib', 'ali', 'bin', 'abdurrahman', 'assegaf', 'hari', 'ini']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['mohon', 'maaf', 'lahir', 'batin', 'kekurangan', 'kesalahan', 'sikap', 'perilaku', 'kep']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['mohon', 'maaf', 'lahir', 'batin', 'kurang', 'salah', 'sikap', 'perilaku', 'kep']</t>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'kehilangan', 'ulama', 'habib', 'ali', 'bin', 'abdurrahman', 'assegaf']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'hilang', 'ulama', 'habib', 'ali', 'bin', 'abdurrahman', 'assegaf']</t>
         </is>
       </c>
     </row>
@@ -2995,34 +3350,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>22969</v>
+        <v>31545</v>
       </c>
       <c r="C72" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>terima kasih amp apresiasi kpd segenap jajaran pimpinan amp pengurus struktur partai para pimpinan amp anggota fpd di se</t>
+          <t>turut berdukacita atas kejadian gempa bumi di majene sulbar amp banjir di kalimantan selatan di hari jumat yang ba</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'amp', 'apresiasi', 'kpd', 'segenap', 'jajaran', 'pimpinan', 'amp', 'pengurus', 'struktur', 'partai', 'para', 'pimpinan', 'amp', 'anggota', 'fpd', 'di', 'se']</t>
+          <t>['turut', 'berdukacita', 'atas', 'kejadian', 'gempa', 'bumi', 'di', 'majene', 'sulbar', 'amp', 'banjir', 'di', 'kalimantan', 'selatan', 'di', 'hari', 'jumat', 'yang', 'ba']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
+          <t>['turut', 'berdukacita', 'atas', 'kejadian', 'gempa', 'bumi', 'di', 'majene', 'sulbar', 'amp', 'banjir', 'di', 'kalimantan', 'selatan', 'di', 'hari', 'jumat', 'yang', 'ba']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'apresiasi', 'kpd', 'segenap', 'jajaran', 'pimpinan', 'pengurus', 'struktur', 'partai', 'pimpinan', 'anggota', 'fpd']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'apresiasi', 'kpd', 'segenap', 'jajar', 'pimpin', 'urus', 'struktur', 'partai', 'pimpin', 'anggota', 'fpd']</t>
+          <t>['berdukacita', 'kejadian', 'gempa', 'bumi', 'majene', 'sulbar', 'banjir', 'kalimantan', 'selatan', 'jumat', 'ba']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['dukacita', 'jadi', 'gempa', 'bumi', 'majene', 'sulbar', 'banjir', 'kalimantan', 'selatan', 'jumat', 'ba']</t>
         </is>
       </c>
     </row>
@@ -3031,34 +3391,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>22970</v>
+        <v>31546</v>
       </c>
       <c r="C73" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>mari kita lanjutkan perjuangan partai demokrat bantu negara atasi pandemi covid dan pulihkan ekonomi serta ban</t>
+          <t>innalilahi wa inna ilaihi rojiun saya atas nama pribadi maupun keluarga besar turut berduka cita atas</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['mari', 'kita', 'lanjutkan', 'perjuangan', 'partai', 'demokrat', 'bantu', 'negara', 'atasi', 'pandemi', 'covid', 'dan', 'pulihkan', 'ekonomi', 'serta', 'ban']</t>
+          <t>['innalilahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'saya', 'atas', 'nama', 'pribadi', 'maupun', 'keluarga', 'besar', 'turut', 'berduka', 'cita', 'atas']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['innalilahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'saya', 'atas', 'nama', 'pribadi', 'maupun', 'keluarga', 'besar', 'turut', 'berduka', 'cita', 'atas']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['mari', 'lanjutkan', 'perjuangan', 'partai', 'demokrat', 'bantu', 'negara', 'atasi', 'pandemi', 'covid', 'pulihkan', 'ekonomi', 'ban']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['mari', 'lanjut', 'juang', 'partai', 'demokrat', 'bantu', 'negara', 'atas', 'pandemi', 'covid', 'pulih', 'ekonomi', 'ban']</t>
+          <t>['innalilahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'nama', 'pribadi', 'keluarga', 'berduka', 'cita']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['innalilahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'nama', 'pribadi', 'keluarga', 'duka', 'cita']</t>
         </is>
       </c>
     </row>
@@ -3067,34 +3432,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>22971</v>
+        <v>31547</v>
       </c>
       <c r="C74" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve">ke depan semoga kita bisa menjadi pribadipribadi yang lebih baik dan bermanfaat menjadi politisipolitisi yang </t>
+          <t>di atas segalanya tetap konsisten menjadi bagian dari solusi menghadapi pandemi covid dan krisis ek</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['ke', 'depan', 'semoga', 'kita', 'bisa', 'menjadi', 'pribadipribadi', 'yang', 'lebih', 'baik', 'dan', 'bermanfaat', 'menjadi', 'politisipolitisi', 'yang']</t>
+          <t>['di', 'atas', 'segalanya', 'tetap', 'konsisten', 'menjadi', 'bagian', 'dari', 'solusi', 'menghadapi', 'pandemi', 'covid', 'dan', 'krisis', 'ek']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['di', 'atas', 'segalanya', 'tetap', 'konsisten', 'menjadi', 'bagian', 'dari', 'solusi', 'menghadapi', 'pandemi', 'covid', 'dan', 'krisis', 'ek']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['semoga', 'pribadipribadi', 'bermanfaat', 'politisipolitisi']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['moga', 'pribadipribadi', 'manfaat', 'politisipolitisi']</t>
+          <t>['konsisten', 'solusi', 'menghadapi', 'pandemi', 'covid', 'krisis', 'ek']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['konsisten', 'solusi', 'hadap', 'pandemi', 'covid', 'krisis', 'ek']</t>
         </is>
       </c>
     </row>
@@ -3103,34 +3473,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>22972</v>
+        <v>31548</v>
       </c>
       <c r="C75" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>evaluasi itu semua agar kita selalu dalam jalan kebenaran dan dalam lindungannya</t>
+          <t>termasuk juga kita patut bersyukur atas pencapaian pilkada kali ini terlebih rupanya pencapaian itu juga diikuti</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['evaluasi', 'itu', 'semua', 'agar', 'kita', 'selalu', 'dalam', 'jalan', 'kebenaran', 'dan', 'dalam', 'lindungannya']</t>
+          <t>['termasuk', 'juga', 'kita', 'patut', 'bersyukur', 'atas', 'pencapaian', 'pilkada', 'kali', 'ini', 'terlebih', 'rupanya', 'pencapaian', 'itu', 'juga', 'diikuti']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
+          <t>['termasuk', 'juga', 'kita', 'patut', 'bersyukur', 'atas', 'pencapaian', 'pilihan, kepala, daerah', 'kali', 'ini', 'terlebih', 'rupanya', 'pencapaian', 'itu', 'juga', 'diikuti']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['evaluasi', 'jalan', 'kebenaran', 'lindungannya']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['evaluasi', 'jalan', 'benar', 'lindung']</t>
+          <t>['patut', 'bersyukur', 'pencapaian', 'pilihan, kepala, daerah', 'kali', 'pencapaian', 'diikuti']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['patut', 'syukur', 'capai', 'pilih kepala daerah', 'kali', 'capai', 'ikut']</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3514,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>22973</v>
+        <v>31549</v>
       </c>
       <c r="C76" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>refleksi amp kontemplasi penting agar kita selalu bersyukur kpd allah swt tuhan ymk utk nikmat amp karunianya di at</t>
+          <t>telah terbit demokrat newsletter desember dgn tema demokrat berkoalisi dengan rakyat newsletter kali ini me</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['refleksi', 'amp', 'kontemplasi', 'penting', 'agar', 'kita', 'selalu', 'bersyukur', 'kpd', 'allah', 'swt', 'tuhan', 'ymk', 'utk', 'nikmat', 'amp', 'karunianya', 'di', 'at']</t>
+          <t>['telah', 'terbit', 'demokrat', 'newsletter', 'desember', 'dgn', 'tema', 'demokrat', 'berkoalisi', 'dengan', 'rakyat', 'newsletter', 'kali', 'ini', 'me']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['telah', 'terbit', 'demokrat', 'newsletter', 'desember', 'dengan', 'tema', 'demokrat', 'berkoalisi', 'dengan', 'rakyat', 'newsletter', 'kali', 'ini', 'me']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['refleksi', 'kontemplasi', 'bersyukur', 'kpd', 'allah', 'swt', 'tuhan', 'ymk', 'nikmat', 'karunianya', 'at']</t>
+          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['refleksi', 'kontemplasi', 'syukur', 'kpd', 'allah', 'swt', 'tuhan', 'ymk', 'nikmat', 'karunia', 'at']</t>
+          <t>['terbit', 'demokrat', 'newsletter', 'desember', 'tema', 'demokrat', 'berkoalisi', 'rakyat', 'newsletter', 'kali', 'me']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['terbit', 'demokrat', 'newsletter', 'desember', 'tema', 'demokrat', 'koalisi', 'rakyat', 'newsletter', 'kali', 'me']</t>
         </is>
       </c>
     </row>
@@ -3175,34 +3555,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>22974</v>
+        <v>31550</v>
       </c>
       <c r="C77" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ini adalah realitas politik dan demokrasi semoga yang menang tidak terbang dan semoga yang kalah tidak patah mar</t>
+          <t>karena sejatinya efektivitas pendistribusian vaksin akan menjadi ujung tombak bagi kebangkitan indonesia dari pand</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['ini', 'adalah', 'realitas', 'politik', 'dan', 'demokrasi', 'semoga', 'yang', 'menang', 'tidak', 'terbang', 'dan', 'semoga', 'yang', 'kalah', 'tidak', 'patah', 'mar']</t>
+          <t>['karena', 'sejatinya', 'efektivitas', 'pendistribusian', 'vaksin', 'akan', 'menjadi', 'ujung', 'tombak', 'bagi', 'kebangkitan', 'indonesia', 'dari', 'pand']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 18 outcomes&gt;</t>
+          <t>['karena', 'sejatinya', 'efektivitas', 'pendistribusian', 'vaksin', 'akan', 'menjadi', 'ujung', 'tombak', 'bagi', 'kebangkitan', 'indonesia', 'dari', 'pand']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['realitas', 'politik', 'demokrasi', 'semoga', 'menang', 'terbang', 'semoga', 'kalah', 'patah', 'mar']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['realitas', 'politik', 'demokrasi', 'moga', 'menang', 'terbang', 'moga', 'kalah', 'patah', 'mar']</t>
+          <t>['sejatinya', 'efektivitas', 'pendistribusian', 'vaksin', 'ujung', 'tombak', 'kebangkitan', 'indonesia', 'pand']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['sejati', 'efektivitas', 'distribusi', 'vaksin', 'ujung', 'tombak', 'bangkit', 'indonesia', 'pand']</t>
         </is>
       </c>
     </row>
@@ -3211,34 +3596,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>22975</v>
+        <v>31551</v>
       </c>
       <c r="C78" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>para pemimpin pengurus amp kader yg saya cintai amp banggakan banyak peristiwa suka duka setahun terakh</t>
+          <t>kita semua berharap bahwa vaksin nantinya akan bisa menjadi game changer dalam ketidakpastian yang kita hadapi be</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['para', 'pemimpin', 'pengurus', 'amp', 'kader', 'yg', 'saya', 'cintai', 'amp', 'banggakan', 'banyak', 'peristiwa', 'suka', 'duka', 'setahun', 'terakh']</t>
+          <t>['kita', 'semua', 'berharap', 'bahwa', 'vaksin', 'nantinya', 'akan', 'bisa', 'menjadi', 'game', 'changer', 'dalam', 'ketidakpastian', 'yang', 'kita', 'hadapi', 'be']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['kita', 'semua', 'berharap', 'bahwa', 'vaksin', 'nantinya', 'akan', 'bisa', 'menjadi', 'game', 'changer', 'dalam', 'ketidakpastian', 'yang', 'kita', 'hadapi', 'be']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['pemimpin', 'pengurus', 'kader', 'cintai', 'banggakan', 'peristiwa', 'suka', 'duka', 'setahun', 'terakh']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['pimpin', 'urus', 'kader', 'cinta', 'bangga', 'peristiwa', 'suka', 'duka', 'tahun', 'akh']</t>
+          <t>['berharap', 'vaksin', 'game', 'changer', 'ketidakpastian', 'hadapi', 'be']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['harap', 'vaksin', 'game', 'changer', 'ketidakpastian', 'hadap', 'be']</t>
         </is>
       </c>
     </row>
@@ -3247,34 +3637,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>22976</v>
+        <v>31552</v>
       </c>
       <c r="C79" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>turut berduka cita atas wafatnya prof muladi beliau pernah menjabat sbg menteri kehakiman amp mensesneg</t>
+          <t>mengawali tahun tulisan saya berjudul vaksin dan optimisme melawan pandemi dimuat di senin</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['turut', 'berduka', 'cita', 'atas', 'wafatnya', 'prof', 'muladi', 'beliau', 'pernah', 'menjabat', 'sbg', 'menteri', 'kehakiman', 'amp', 'mensesneg']</t>
+          <t>['mengawali', 'tahun', 'tulisan', 'saya', 'berjudul', 'vaksin', 'dan', 'optimisme', 'melawan', 'pandemi', 'dimuat', 'di', 'senin']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['mengawali', 'tahun', 'tulisan', 'saya', 'berjudul', 'vaksin', 'dan', 'optimisme', 'melawan', 'pandemi', 'dimuat', 'di', 'senin']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['berduka', 'cita', 'wafatnya', 'prof', 'muladi', 'beliau', 'menjabat', 'sbg', 'menteri', 'kehakiman', 'mensesneg']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['duka', 'cita', 'wafat', 'prof', 'muladi', 'beliau', 'jabat', 'sbg', 'menteri', 'hakim', 'mensesneg']</t>
+          <t>['mengawali', 'tulisan', 'berjudul', 'vaksin', 'optimisme', 'melawan', 'pandemi', 'dimuat', 'senin']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['awal', 'tulis', 'judul', 'vaksin', 'optimisme', 'lawan', 'pandemi', 'muat', 'senin']</t>
         </is>
       </c>
     </row>
@@ -3283,34 +3678,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>22977</v>
+        <v>31553</v>
       </c>
       <c r="C80" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>semoga semua hal yg kami lakukan jadi cat penting bagi sejarah perjuangan kita dlm menghadapi berbagai ujian di th</t>
+          <t>atas nama pribadi dan keluarga besar saya mengucapkan selamat hut ke perjuangan semoga sukses</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['semoga', 'semua', 'hal', 'yg', 'kami', 'lakukan', 'jadi', 'cat', 'penting', 'bagi', 'sejarah', 'perjuangan', 'kita', 'dlm', 'menghadapi', 'berbagai', 'ujian', 'di', 'th']</t>
+          <t>['atas', 'nama', 'pribadi', 'dan', 'keluarga', 'besar', 'saya', 'mengucapkan', 'selamat', 'hut', 'ke', 'perjuangan', 'semoga', 'sukses']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['atas', 'nama', 'pribadi', 'dan', 'keluarga', 'besar', 'saya', 'mengucapkan', 'selamat', 'hari, ulang, tahun', 'ke', 'perjuangan', 'semoga', 'sukses']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['semoga', 'lakukan', 'cat', 'sejarah', 'perjuangan', 'dlm', 'menghadapi', 'ujian', 'th']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['moga', 'laku', 'cat', 'sejarah', 'juang', 'dlm', 'hadap', 'uji', 'th']</t>
+          <t>['nama', 'pribadi', 'keluarga', 'selamat', 'hari, ulang, tahun', 'perjuangan', 'semoga', 'sukses']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['nama', 'pribadi', 'keluarga', 'selamat', 'hari ulang tahun', 'juang', 'moga', 'sukses']</t>
         </is>
       </c>
     </row>
@@ -3319,34 +3719,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>22978</v>
+        <v>31554</v>
       </c>
       <c r="C81" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>thn ini kita dituntut utk berjuang amp beradaptasi di tengah pandemi covid telah amp akan trs berju</t>
+          <t xml:space="preserve">doa tulus juga kita panjatkan bagi semua bagi keluarga korban semoga allah swt senantiasa memberikan ketabahan amp </t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['thn', 'ini', 'kita', 'dituntut', 'utk', 'berjuang', 'amp', 'beradaptasi', 'di', 'tengah', 'pandemi', 'covid', 'telah', 'amp', 'akan', 'trs', 'berju']</t>
+          <t>['doa', 'tulus', 'juga', 'kita', 'panjatkan', 'bagi', 'semua', 'bagi', 'keluarga', 'korban', 'semoga', 'allah', 'swt', 'senantiasa', 'memberikan', 'ketabahan', 'amp']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>['doa', 'tulus', 'juga', 'kita', 'panjatkan', 'bagi', 'semua', 'bagi', 'keluarga', 'korban', 'semoga', 'allah', 'subhanahu, wa, taala', 'senantiasa', 'memberikan', 'ketabahan', 'amp']</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>['thn', 'dituntut', 'berjuang', 'beradaptasi', 'pandemi', 'covid', 'trs', 'berju']</t>
-        </is>
-      </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['thn', 'tuntut', 'juang', 'adaptasi', 'pandemi', 'covid', 'trs', 'berju']</t>
+          <t>['doa', 'tulus', 'panjatkan', 'keluarga', 'korban', 'semoga', 'allah', 'subhanahu, wa, taala', 'senantiasa', 'ketabahan']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['doa', 'tulus', 'panjat', 'keluarga', 'korban', 'moga', 'allah', 'subhanahu wa taala', 'senantiasa', 'tabah']</t>
         </is>
       </c>
     </row>
@@ -3355,34 +3760,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>22979</v>
+        <v>31555</v>
       </c>
       <c r="C82" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>semoga bangsa indonesia terus bangkit amp sukses melewati krisis pandemi ini semoga indonesia semakin aman damai amp</t>
+          <t>saya atas nama pribadi amp turut berduka atas jatuhnya pesawat sriwijaya air sj di perairan kep ser</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['semoga', 'bangsa', 'indonesia', 'terus', 'bangkit', 'amp', 'sukses', 'melewati', 'krisis', 'pandemi', 'ini', 'semoga', 'indonesia', 'semakin', 'aman', 'damai', 'amp']</t>
+          <t>['saya', 'atas', 'nama', 'pribadi', 'amp', 'turut', 'berduka', 'atas', 'jatuhnya', 'pesawat', 'sriwijaya', 'air', 'sj', 'di', 'perairan', 'kep', 'ser']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
+          <t>['saya', 'atas', 'nama', 'pribadi', 'amp', 'turut', 'berduka', 'atas', 'jatuhnya', 'pesawat', 'sriwijaya', 'air', 'saja', 'di', 'perairan', 'kep', 'ser']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['semoga', 'bangsa', 'indonesia', 'bangkit', 'sukses', 'melewati', 'krisis', 'pandemi', 'semoga', 'indonesia', 'aman', 'damai']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['moga', 'bangsa', 'indonesia', 'bangkit', 'sukses', 'lewat', 'krisis', 'pandemi', 'moga', 'indonesia', 'aman', 'damai']</t>
+          <t>['nama', 'pribadi', 'berduka', 'jatuhnya', 'pesawat', 'sriwijaya', 'air', 'perairan', 'kep', 'ser']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['nama', 'pribadi', 'duka', 'jatuh', 'pesawat', 'sriwijaya', 'air', 'air', 'kep', 'ser']</t>
         </is>
       </c>
     </row>
@@ -3391,34 +3801,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>22980</v>
+        <v>31556</v>
       </c>
       <c r="C83" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve">atas nama pribadi keluarga dan dpp saya mengucapkan selamat hari natal untuk saudarasaudaraku umat </t>
+          <t>rt tulisan bapak sby berjudul indonesia tahun peluang untuk sukses ada jangan kita siasiakan selamat membaca klik</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['atas', 'nama', 'pribadi', 'keluarga', 'dan', 'dpp', 'saya', 'mengucapkan', 'selamat', 'hari', 'natal', 'untuk', 'saudarasaudaraku', 'umat']</t>
+          <t>['rt', 'tulisan', 'bapak', 'sby', 'berjudul', 'indonesia', 'tahun', 'peluang', 'untuk', 'sukses', 'ada', 'jangan', 'kita', 'siasiakan', 'selamat', 'membaca', 'klik']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'tulisan', 'bapak', 'susilo, bambang, yudhoyono', 'berjudul', 'indonesia', 'tahun', 'peluang', 'untuk', 'sukses', 'ada', 'jangan', 'kita', 'siasiakan', 'selamat', 'membaca', 'klik']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['nama', 'pribadi', 'keluarga', 'dpp', 'selamat', 'natal', 'saudarasaudaraku', 'umat']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['nama', 'pribadi', 'keluarga', 'dpp', 'selamat', 'natal', 'saudarasaudaraku', 'umat']</t>
+          <t>['tulisan', 'susilo, bambang, yudhoyono', 'berjudul', 'indonesia', 'peluang', 'sukses', 'siasiakan', 'selamat', 'membaca', 'klik']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['tulis', 'susilo bambang yudhoyono', 'judul', 'indonesia', 'peluang', 'sukses', 'siasiakan', 'selamat', 'baca', 'klik']</t>
         </is>
       </c>
     </row>
@@ -3427,34 +3842,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>22981</v>
+        <v>31557</v>
       </c>
       <c r="C84" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>selamat kepada menteri amp wamen yang baru saja dilantik untuk membantu presiden di kabinet indonesia maj</t>
+          <t xml:space="preserve">demo amp kekerasan di capitol hill as adl pengingat ttg pentingnya menjaga demokrasi yg sehat adil amp damai bahkan </t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['selamat', 'kepada', 'menteri', 'amp', 'wamen', 'yang', 'baru', 'saja', 'dilantik', 'untuk', 'membantu', 'presiden', 'di', 'kabinet', 'indonesia', 'maj']</t>
+          <t>['demo', 'amp', 'kekerasan', 'di', 'capitol', 'hill', 'as', 'adl', 'pengingat', 'ttg', 'pentingnya', 'menjaga', 'demokrasi', 'yg', 'sehat', 'adil', 'amp', 'damai', 'bahkan']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['demo', 'amp', 'kekerasan', 'di', 'capitol', 'hill', 'as', 'adalah', 'pengingat', 'tentang', 'pentingnya', 'menjaga', 'demokrasi', 'yang', 'sehat', 'adil', 'amp', 'damai', 'bahkan']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['selamat', 'menteri', 'wamen', 'dilantik', 'membantu', 'presiden', 'kabinet', 'indonesia', 'maj']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['selamat', 'menteri', 'wamen', 'lantik', 'bantu', 'presiden', 'kabinet', 'indonesia', 'maj']</t>
+          <t>['demo', 'kekerasan', 'capitol', 'hill', 'as', 'pengingat', 'menjaga', 'demokrasi', 'sehat', 'adil', 'damai']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['demo', 'keras', 'capitol', 'hill', 'as', 'ingat', 'jaga', 'demokrasi', 'sehat', 'adil', 'damai']</t>
         </is>
       </c>
     </row>
@@ -3463,34 +3883,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>22982</v>
+        <v>31558</v>
       </c>
       <c r="C85" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>selamat hari ibu untuk seluruh ibu dimanapun berada terkhusus untuk memo amp istriku terimakasih atas</t>
+          <t>atas nama dan pribadi saya mengucapkan selamat milad ke utk semoga ppp terus konsi</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['selamat', 'hari', 'ibu', 'untuk', 'seluruh', 'ibu', 'dimanapun', 'berada', 'terkhusus', 'untuk', 'memo', 'amp', 'istriku', 'terimakasih', 'atas']</t>
+          <t>['atas', 'nama', 'dan', 'pribadi', 'saya', 'mengucapkan', 'selamat', 'milad', 'ke', 'utk', 'semoga', 'ppp', 'terus', 'konsi']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['atas', 'nama', 'dan', 'pribadi', 'saya', 'mengucapkan', 'selamat', 'milad', 'ke', 'untuk', 'semoga', 'ppp', 'terus', 'konsi']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['selamat', 'dimanapun', 'terkhusus', 'memo', 'istriku', 'terimakasih']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['selamat', 'mana', 'khusus', 'memo', 'istri', 'terimakasih']</t>
+          <t>['nama', 'pribadi', 'selamat', 'milad', 'semoga', 'ppp', 'konsi']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['nama', 'pribadi', 'selamat', 'milad', 'moga', 'ppp', 'konsi']</t>
         </is>
       </c>
     </row>
@@ -3499,34 +3924,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>22983</v>
+        <v>31559</v>
       </c>
       <c r="C86" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>rt di inggris muncul strain covid baru yg lebih mudah amp cepat menyebar pandemi spanish flu penyebaran virusnya jug</t>
+          <t>kita doakan semoga almarhum berdua husnul khotimah diampuni segala dosanya diterima semua kebaikan dan amal ibada</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['rt', 'di', 'inggris', 'muncul', 'strain', 'covid', 'baru', 'yg', 'lebih', 'mudah', 'amp', 'cepat', 'menyebar', 'pandemi', 'spanish', 'flu', 'penyebaran', 'virusnya', 'jug']</t>
+          <t>['kita', 'doakan', 'semoga', 'almarhum', 'berdua', 'husnul', 'khotimah', 'diampuni', 'segala', 'dosanya', 'diterima', 'semua', 'kebaikan', 'dan', 'amal', 'ibada']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['kita', 'doakan', 'semoga', 'almarhum', 'berdua', 'husnul', 'khotimah', 'diampuni', 'segala', 'dosanya', 'diterima', 'semua', 'kebaikan', 'dan', 'amal', 'ibada']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['inggris', 'muncul', 'strain', 'covid', 'mudah', 'cepat', 'menyebar', 'pandemi', 'spanish', 'flu', 'penyebaran', 'virusnya', 'jug']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['inggris', 'muncul', 'strain', 'covid', 'mudah', 'cepat', 'sebar', 'pandemi', 'spanish', 'flu', 'sebar', 'virus', 'jug']</t>
+          <t>['doakan', 'semoga', 'almarhum', 'berdua', 'husnul', 'khotimah', 'diampuni', 'dosanya', 'diterima', 'kebaikan', 'amal', 'ibada']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['doa', 'moga', 'almarhum', 'dua', 'husnul', 'khotimah', 'ampun', 'dosa', 'terima', 'baik', 'amal', 'ibada']</t>
         </is>
       </c>
     </row>
@@ -3535,34 +3965,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>22984</v>
+        <v>31560</v>
       </c>
       <c r="C87" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>saya mengucapkan apresiasi kpd ratusan pelaku umkm di seluruh indonesia yang telah berpartisipasi dalam lomba karya</t>
+          <t>terakhir kali saya bersilaturahmi dengan pak bahrum daido dan keluarga ketika saya diminta menjadi saksi nikah putr</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['saya', 'mengucapkan', 'apresiasi', 'kpd', 'ratusan', 'pelaku', 'umkm', 'di', 'seluruh', 'indonesia', 'yang', 'telah', 'berpartisipasi', 'dalam', 'lomba', 'karya']</t>
+          <t>['terakhir', 'kali', 'saya', 'bersilaturahmi', 'dengan', 'pak', 'bahrum', 'daido', 'dan', 'keluarga', 'ketika', 'saya', 'diminta', 'menjadi', 'saksi', 'nikah', 'putr']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['terakhir', 'kali', 'saya', 'bersilaturahmi', 'dengan', 'pak', 'bahrum', 'daido', 'dan', 'keluarga', 'ketika', 'saya', 'diminta', 'menjadi', 'saksi', 'nikah', 'putr']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['apresiasi', 'kpd', 'ratusan', 'pelaku', 'umkm', 'indonesia', 'berpartisipasi', 'lomba', 'karya']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['apresiasi', 'kpd', 'ratus', 'laku', 'umkm', 'indonesia', 'partisipasi', 'lomba', 'karya']</t>
+          <t>['kali', 'bersilaturahmi', 'bahrum', 'daido', 'keluarga', 'saksi', 'nikah', 'putr']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['kali', 'silaturahmi', 'bahrum', 'daido', 'keluarga', 'saksi', 'nikah', 'putr']</t>
         </is>
       </c>
     </row>
@@ -3571,34 +4006,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>22985</v>
+        <v>31561</v>
       </c>
       <c r="C88" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>selain toko mladi yg menjadi pemenang utama ada produk kreatif umkm lainnya yang terpilih menjadi pemenang favor</t>
+          <t>saya beserta keluarga turut berduka cita yang sedalamdalamnya atas wafatnya beliau berdua rasanya tidak percaya</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['selain', 'toko', 'mladi', 'yg', 'menjadi', 'pemenang', 'utama', 'ada', 'produk', 'kreatif', 'umkm', 'lainnya', 'yang', 'terpilih', 'menjadi', 'pemenang', 'favor']</t>
+          <t>['saya', 'beserta', 'keluarga', 'turut', 'berduka', 'cita', 'yang', 'sedalamdalamnya', 'atas', 'wafatnya', 'beliau', 'berdua', 'rasanya', 'tidak', 'percaya']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['saya', 'beserta', 'keluarga', 'turut', 'berduka', 'cita', 'yang', 'sedalamdalamnya', 'atas', 'wafatnya', 'beliau', 'berdua', 'rasanya', 'tidak', 'percaya']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['toko', 'mladi', 'pemenang', 'utama', 'produk', 'kreatif', 'umkm', 'terpilih', 'pemenang', 'favor']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['toko', 'mladi', 'menang', 'utama', 'produk', 'kreatif', 'umkm', 'pilih', 'menang', 'favor']</t>
+          <t>['beserta', 'keluarga', 'berduka', 'cita', 'sedalamdalamnya', 'wafatnya', 'beliau', 'berdua', 'percaya']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['serta', 'keluarga', 'duka', 'cita', 'sedalamdalamnya', 'wafat', 'beliau', 'dua', 'percaya']</t>
         </is>
       </c>
     </row>
@@ -3607,34 +4047,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>22986</v>
+        <v>31562</v>
       </c>
       <c r="C89" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>toko mladi selain mendapatkan kontrak sbg vendor resmi toko aku demokrat juga akan mendapat uang pembinaan saya</t>
+          <t>hari ini kita kehilangan dua sosok yang sangat dekat dengan kita bapak  mas alex asmasoebrata amp bapak dr ir</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['toko', 'mladi', 'selain', 'mendapatkan', 'kontrak', 'sbg', 'vendor', 'resmi', 'toko', 'aku', 'demokrat', 'juga', 'akan', 'mendapat', 'uang', 'pembinaan', 'saya']</t>
+          <t>['hari', 'ini', 'kita', 'kehilangan', 'dua', 'sosok', 'yang', 'sangat', 'dekat', 'dengan', 'kita', 'bapak', 'mas', 'alex', 'asmasoebrata', 'amp', 'bapak', 'dr', 'ir']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['hari', 'ini', 'kita', 'kehilangan', 'dua', 'sosok', 'yang', 'sangat', 'dekat', 'dengan', 'kita', 'bapak', 'mas', 'alex', 'asmasoebrata', 'amp', 'bapak', 'dari', 'insinyur']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['toko', 'mladi', 'kontrak', 'sbg', 'vendor', 'resmi', 'toko', 'demokrat', 'uang', 'pembinaan']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['toko', 'mladi', 'kontrak', 'sbg', 'vendor', 'resmi', 'toko', 'demokrat', 'uang', 'bina']</t>
+          <t>['kehilangan', 'sosok', 'mas', 'alex', 'asmasoebrata', 'insinyur']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['hilang', 'sosok', 'mas', 'alex', 'asmasoebrata', 'insinyur']</t>
         </is>
       </c>
     </row>
@@ -3643,34 +4088,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>22987</v>
+        <v>31563</v>
       </c>
       <c r="C90" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>setelah melihat dan menilai berbagai produk kreatif dari seluruh indonesia saya memilih toko mladi dari jakarta</t>
+          <t>innalillahi wa inna ilaihi rajiun turut berduka cita atas wafatnya alex asmasoebrata politisi sekaligu</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['setelah', 'melihat', 'dan', 'menilai', 'berbagai', 'produk', 'kreatif', 'dari', 'seluruh', 'indonesia', 'saya', 'memilih', 'toko', 'mladi', 'dari', 'jakarta']</t>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'turut', 'berduka', 'cita', 'atas', 'wafatnya', 'alex', 'asmasoebrata', 'politisi', 'sekaligu']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'turut', 'berduka', 'cita', 'atas', 'wafatnya', 'alex', 'asmasoebrata', 'politisi', 'sekaligu']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['menilai', 'produk', 'kreatif', 'indonesia', 'memilih', 'toko', 'mladi', 'jakarta']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['nilai', 'produk', 'kreatif', 'indonesia', 'pilih', 'toko', 'mladi', 'jakarta']</t>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'berduka', 'cita', 'wafatnya', 'alex', 'asmasoebrata', 'politisi', 'sekaligu']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'duka', 'cita', 'wafat', 'alex', 'asmasoebrata', 'politis', 'sekaligu']</t>
         </is>
       </c>
     </row>
@@ -3679,34 +4129,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>22988</v>
+        <v>31564</v>
       </c>
       <c r="C91" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve">kepemimpinan presiden joe biden kita harapkan membuka peluang bagi indonesia untuk kembali meningkatkan perannya </t>
+          <t>akhirnya atas nama pribadi dan keluarga saya mengucapkan selamat tahun baru terima kasih dan selamat tinggal</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['kepemimpinan', 'presiden', 'joe', 'biden', 'kita', 'harapkan', 'membuka', 'peluang', 'bagi', 'indonesia', 'untuk', 'kembali', 'meningkatkan', 'perannya']</t>
+          <t>['akhirnya', 'atas', 'nama', 'pribadi', 'dan', 'keluarga', 'saya', 'mengucapkan', 'selamat', 'tahun', 'baru', 'terima', 'kasih', 'dan', 'selamat', 'tinggal']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['akhirnya', 'atas', 'nama', 'pribadi', 'dan', 'keluarga', 'saya', 'mengucapkan', 'selamat', 'tahun', 'baru', 'terima', 'kasih', 'dan', 'selamat', 'tinggal']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['kepemimpinan', 'presiden', 'joe', 'biden', 'harapkan', 'membuka', 'peluang', 'indonesia', 'meningkatkan', 'perannya']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['pimpin', 'presiden', 'joe', 'biden', 'harap', 'buka', 'peluang', 'indonesia', 'tingkat', 'peran']</t>
+          <t>['nama', 'pribadi', 'keluarga', 'selamat', 'terima', 'kasih', 'selamat', 'tinggal']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['nama', 'pribadi', 'keluarga', 'selamat', 'terima', 'kasih', 'selamat', 'tinggal']</t>
         </is>
       </c>
     </row>
@@ -3715,34 +4170,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>22989</v>
+        <v>31565</v>
       </c>
       <c r="C92" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>kami berharap perubahan kepemimpinan as jd peluang bagi indonesia utk tingkatkan hub bilateral kemitraan amp kerjasa</t>
+          <t>insya allah sy akan trs perbaiki diri amp berupaya yg terbaik dlm menjalankan kepemimpinan partai yg efektif mewuju</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['kami', 'berharap', 'perubahan', 'kepemimpinan', 'as', 'jd', 'peluang', 'bagi', 'indonesia', 'utk', 'tingkatkan', 'hub', 'bilateral', 'kemitraan', 'amp', 'kerjasa']</t>
+          <t>['insya', 'allah', 'sy', 'akan', 'trs', 'perbaiki', 'diri', 'amp', 'berupaya', 'yg', 'terbaik', 'dlm', 'menjalankan', 'kepemimpinan', 'partai', 'yg', 'efektif', 'mewuju']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['insya', 'allah', 'saya', 'akan', 'terus', 'perbaiki', 'diri', 'amp', 'berupaya', 'yang', 'terbaik', 'dalam', 'menjalankan', 'kepemimpinan', 'partai', 'yang', 'efektif', 'mewuju']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['berharap', 'perubahan', 'kepemimpinan', 'as', 'peluang', 'indonesia', 'tingkatkan', 'hub', 'bilateral', 'kemitraan', 'kerjasa']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['harap', 'ubah', 'pimpin', 'as', 'peluang', 'indonesia', 'tingkat', 'hub', 'bilateral', 'mitra', 'kerjasa']</t>
+          <t>['insya', 'allah', 'perbaiki', 'berupaya', 'terbaik', 'menjalankan', 'kepemimpinan', 'partai', 'efektif', 'mewuju']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['insya', 'allah', 'baik', 'upaya', 'baik', 'jalan', 'pimpin', 'partai', 'efektif', 'mewuju']</t>
         </is>
       </c>
     </row>
@@ -3751,34 +4211,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>22990</v>
+        <v>31566</v>
       </c>
       <c r="C93" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve">webinar ini adlh inisiatif yg baik utk memahami perubahan dinamika politik di as amp implikasinya trhdp geopolitik </t>
+          <t>mohon maaf lahir dan batin jika ada kekurangan dan kesalahan baik dalam tutur kata sikap dan perilaku maupun kep</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['webinar', 'ini', 'adlh', 'inisiatif', 'yg', 'baik', 'utk', 'memahami', 'perubahan', 'dinamika', 'politik', 'di', 'as', 'amp', 'implikasinya', 'trhdp', 'geopolitik']</t>
+          <t>['mohon', 'maaf', 'lahir', 'dan', 'batin', 'jika', 'ada', 'kekurangan', 'dan', 'kesalahan', 'baik', 'dalam', 'tutur', 'kata', 'sikap', 'dan', 'perilaku', 'maupun', 'kep']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['mohon', 'maaf', 'lahir', 'dan', 'batin', 'jika', 'ada', 'kekurangan', 'dan', 'kesalahan', 'baik', 'dalam', 'tutur', 'kata', 'sikap', 'dan', 'perilaku', 'maupun', 'kep']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['webinar', 'adlh', 'inisiatif', 'memahami', 'perubahan', 'dinamika', 'politik', 'as', 'implikasinya', 'trhdp', 'geopolitik']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['webinar', 'adlh', 'inisiatif', 'paham', 'ubah', 'dinamika', 'politik', 'as', 'implikasi', 'trhdp', 'geopolitik']</t>
+          <t>['mohon', 'maaf', 'lahir', 'batin', 'kekurangan', 'kesalahan', 'sikap', 'perilaku', 'kep']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['mohon', 'maaf', 'lahir', 'batin', 'kurang', 'salah', 'sikap', 'perilaku', 'kep']</t>
         </is>
       </c>
     </row>
@@ -3787,34 +4252,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>22991</v>
+        <v>31567</v>
       </c>
       <c r="C94" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>malam ini saya membuka webinar dept luar negeri amp keamanan nasional dpp yg diisi oleh mas</t>
+          <t>terima kasih amp apresiasi kpd segenap jajaran pimpinan amp pengurus struktur partai para pimpinan amp anggota fpd di se</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['malam', 'ini', 'saya', 'membuka', 'webinar', 'dept', 'luar', 'negeri', 'amp', 'keamanan', 'nasional', 'dpp', 'yg', 'diisi', 'oleh', 'mas']</t>
+          <t>['terima', 'kasih', 'amp', 'apresiasi', 'kpd', 'segenap', 'jajaran', 'pimpinan', 'amp', 'pengurus', 'struktur', 'partai', 'para', 'pimpinan', 'amp', 'anggota', 'fpd', 'di', 'se']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['terima', 'kasih', 'amp', 'apresiasi', 'kepada', 'segenap', 'jajaran', 'pimpinan', 'amp', 'pengurus', 'struktur', 'partai', 'para', 'pimpinan', 'amp', 'anggota', 'fpd', 'di', 'se']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['malam', 'membuka', 'webinar', 'dept', 'negeri', 'keamanan', 'nasional', 'dpp', 'diisi', 'mas']</t>
+          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['malam', 'buka', 'webinar', 'dept', 'negeri', 'aman', 'nasional', 'dpp', 'isi', 'mas']</t>
+          <t>['terima', 'kasih', 'apresiasi', 'segenap', 'jajaran', 'pimpinan', 'pengurus', 'struktur', 'partai', 'pimpinan', 'anggota', 'fpd']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'apresiasi', 'segenap', 'jajar', 'pimpin', 'urus', 'struktur', 'partai', 'pimpin', 'anggota', 'fpd']</t>
         </is>
       </c>
     </row>
@@ -3823,34 +4293,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>22992</v>
+        <v>31568</v>
       </c>
       <c r="C95" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>selamat ulang tahun untuk amp mediamedia lain yang bernaung dalam transmedia</t>
+          <t>mari kita lanjutkan perjuangan partai demokrat bantu negara atasi pandemi covid dan pulihkan ekonomi serta ban</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['selamat', 'ulang', 'tahun', 'untuk', 'amp', 'mediamedia', 'lain', 'yang', 'bernaung', 'dalam', 'transmedia']</t>
+          <t>['mari', 'kita', 'lanjutkan', 'perjuangan', 'partai', 'demokrat', 'bantu', 'negara', 'atasi', 'pandemi', 'covid', 'dan', 'pulihkan', 'ekonomi', 'serta', 'ban']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['mari', 'kita', 'lanjutkan', 'perjuangan', 'partai', 'demokrat', 'bantu', 'negara', 'atasi', 'pandemi', 'covid', 'dan', 'pulihkan', 'ekonomi', 'serta', 'ban']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['selamat', 'ulang', 'mediamedia', 'bernaung', 'transmedia']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['selamat', 'ulang', 'mediamedia', 'naung', 'transmedia']</t>
+          <t>['mari', 'lanjutkan', 'perjuangan', 'partai', 'demokrat', 'bantu', 'negara', 'atasi', 'pandemi', 'covid', 'pulihkan', 'ekonomi', 'ban']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['mari', 'lanjut', 'juang', 'partai', 'demokrat', 'bantu', 'negara', 'atas', 'pandemi', 'covid', 'pulih', 'ekonomi', 'ban']</t>
         </is>
       </c>
     </row>
@@ -3859,34 +4334,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>22993</v>
+        <v>31569</v>
       </c>
       <c r="C96" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve">selamat hari juang kartika kepada segenap prajurit ad terus kobarkan semangat serta nilainilai patriotisme </t>
+          <t xml:space="preserve">ke depan semoga kita bisa menjadi pribadipribadi yang lebih baik dan bermanfaat menjadi politisipolitisi yang </t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['selamat', 'hari', 'juang', 'kartika', 'kepada', 'segenap', 'prajurit', 'ad', 'terus', 'kobarkan', 'semangat', 'serta', 'nilainilai', 'patriotisme']</t>
+          <t>['ke', 'depan', 'semoga', 'kita', 'bisa', 'menjadi', 'pribadipribadi', 'yang', 'lebih', 'baik', 'dan', 'bermanfaat', 'menjadi', 'politisipolitisi', 'yang']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['ke', 'depan', 'semoga', 'kita', 'bisa', 'menjadi', 'pribadipribadi', 'yang', 'lebih', 'baik', 'dan', 'bermanfaat', 'menjadi', 'politisipolitisi', 'yang']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['selamat', 'juang', 'kartika', 'segenap', 'prajurit', 'ad', 'kobarkan', 'semangat', 'nilainilai', 'patriotisme']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['selamat', 'juang', 'kartika', 'segenap', 'prajurit', 'ad', 'kobar', 'semangat', 'nilainilai', 'patriotisme']</t>
+          <t>['semoga', 'pribadipribadi', 'bermanfaat', 'politisipolitisi']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['moga', 'pribadipribadi', 'manfaat', 'politisipolitisi']</t>
         </is>
       </c>
     </row>
@@ -3895,34 +4375,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>22994</v>
+        <v>31570</v>
       </c>
       <c r="C97" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>turut berduka cita atas wafatnya wakil kepala staf angkatan darat letjen tni herman asaribab hari ini se</t>
+          <t>evaluasi itu semua agar kita selalu dalam jalan kebenaran dan dalam lindungannya</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['turut', 'berduka', 'cita', 'atas', 'wafatnya', 'wakil', 'kepala', 'staf', 'angkatan', 'darat', 'letjen', 'tni', 'herman', 'asaribab', 'hari', 'ini', 'se']</t>
+          <t>['evaluasi', 'itu', 'semua', 'agar', 'kita', 'selalu', 'dalam', 'jalan', 'kebenaran', 'dan', 'dalam', 'lindungannya']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['evaluasi', 'itu', 'semua', 'agar', 'kita', 'selalu', 'dalam', 'jalan', 'kebenaran', 'dan', 'dalam', 'lindungannya']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['berduka', 'cita', 'wafatnya', 'wakil', 'kepala', 'staf', 'angkatan', 'darat', 'letjen', 'tni', 'herman', 'asaribab']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['duka', 'cita', 'wafat', 'wakil', 'kepala', 'staf', 'angkat', 'darat', 'letjen', 'tni', 'herman', 'asaribab']</t>
+          <t>['evaluasi', 'jalan', 'kebenaran', 'lindungannya']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['evaluasi', 'jalan', 'benar', 'lindung']</t>
         </is>
       </c>
     </row>
@@ -3931,34 +4416,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>22995</v>
+        <v>31571</v>
       </c>
       <c r="C98" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>bagi yang belum berhasil tetap semangat allah swt memiliki jalan yang terbaik bagi kita mari konsolidasikan kek</t>
+          <t>refleksi amp kontemplasi penting agar kita selalu bersyukur kpd allah swt tuhan ymk utk nikmat amp karunianya di at</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['bagi', 'yang', 'belum', 'berhasil', 'tetap', 'semangat', 'allah', 'swt', 'memiliki', 'jalan', 'yang', 'terbaik', 'bagi', 'kita', 'mari', 'konsolidasikan', 'kek']</t>
+          <t>['refleksi', 'amp', 'kontemplasi', 'penting', 'agar', 'kita', 'selalu', 'bersyukur', 'kpd', 'allah', 'swt', 'tuhan', 'ymk', 'utk', 'nikmat', 'amp', 'karunianya', 'di', 'at']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['refleksi', 'amp', 'kontemplasi', 'penting', 'agar', 'kita', 'selalu', 'bersyukur', 'kepada', 'allah', 'subhanahu, wa, taala', 'tuhan', 'ymk', 'untuk', 'nikmat', 'amp', 'karunianya', 'di', 'at']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['berhasil', 'semangat', 'allah', 'swt', 'memiliki', 'jalan', 'terbaik', 'mari', 'konsolidasikan', 'kek']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['hasil', 'semangat', 'allah', 'swt', 'milik', 'jalan', 'baik', 'mari', 'konsolidasi', 'kek']</t>
+          <t>['refleksi', 'kontemplasi', 'bersyukur', 'allah', 'subhanahu, wa, taala', 'tuhan', 'ymk', 'nikmat', 'karunianya', 'at']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['refleksi', 'kontemplasi', 'syukur', 'allah', 'subhanahu wa taala', 'tuhan', 'ymk', 'nikmat', 'karunia', 'at']</t>
         </is>
       </c>
     </row>
@@ -3967,34 +4457,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>22996</v>
+        <v>31572</v>
       </c>
       <c r="C99" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>bagi yang saat ini suara masih berimbang jangan putus asa teruslah berikhtiar memastikan kemenangan</t>
+          <t>ini adalah realitas politik dan demokrasi semoga yang menang tidak terbang dan semoga yang kalah tidak patah mar</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['bagi', 'yang', 'saat', 'ini', 'suara', 'masih', 'berimbang', 'jangan', 'putus', 'asa', 'teruslah', 'berikhtiar', 'memastikan', 'kemenangan']</t>
+          <t>['ini', 'adalah', 'realitas', 'politik', 'dan', 'demokrasi', 'semoga', 'yang', 'menang', 'tidak', 'terbang', 'dan', 'semoga', 'yang', 'kalah', 'tidak', 'patah', 'mar']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['ini', 'adalah', 'realitas', 'politik', 'dan', 'demokrasi', 'semoga', 'yang', 'menang', 'tidak', 'terbang', 'dan', 'semoga', 'yang', 'kalah', 'tidak', 'patah', 'mar']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['suara', 'berimbang', 'putus', 'asa', 'teruslah', 'berikhtiar', 'kemenangan']</t>
+          <t>&lt;FreqDist with 14 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['suara', 'imbang', 'putus', 'asa', 'terus', 'ikhtiar', 'menang']</t>
+          <t>['realitas', 'politik', 'demokrasi', 'semoga', 'menang', 'terbang', 'semoga', 'kalah', 'patah', 'mar']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['realitas', 'politik', 'demokrasi', 'moga', 'menang', 'terbang', 'moga', 'kalah', 'patah', 'mar']</t>
         </is>
       </c>
     </row>
@@ -4003,34 +4498,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>22997</v>
+        <v>31573</v>
       </c>
       <c r="C100" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve">alhamdulillah di beberapa tempat seperti pilgub kaltara pilkada pacitan amp karawang sementara menang </t>
+          <t>para pemimpin pengurus amp kader yg saya cintai amp banggakan banyak peristiwa suka duka setahun terakh</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'di', 'beberapa', 'tempat', 'seperti', 'pilgub', 'kaltara', 'pilkada', 'pacitan', 'amp', 'karawang', 'sementara', 'menang']</t>
+          <t>['para', 'pemimpin', 'pengurus', 'amp', 'kader', 'yg', 'saya', 'cintai', 'amp', 'banggakan', 'banyak', 'peristiwa', 'suka', 'duka', 'setahun', 'terakh']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['para', 'pemimpin', 'pengurus', 'amp', 'kader', 'yang', 'saya', 'cintai', 'amp', 'banggakan', 'banyak', 'peristiwa', 'suka', 'duka', 'setahun', 'terakh']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'pilgub', 'kaltara', 'pilkada', 'pacitan', 'karawang', 'menang']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'pilgub', 'kaltara', 'pilkada', 'pacitan', 'karawang', 'menang']</t>
+          <t>['pemimpin', 'pengurus', 'kader', 'cintai', 'banggakan', 'peristiwa', 'suka', 'duka', 'setahun', 'terakh']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['pimpin', 'urus', 'kader', 'cinta', 'bangga', 'peristiwa', 'suka', 'duka', 'tahun', 'akh']</t>
         </is>
       </c>
     </row>
@@ -4039,34 +4539,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>22998</v>
+        <v>31574</v>
       </c>
       <c r="C101" t="n">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>kita telah bekerja keras amp berikhtiar sejak penetapan paslon sampai dgn akhir masa kampanye mari kita sempurnakan</t>
+          <t>turut berduka cita atas wafatnya prof muladi beliau pernah menjabat sbg menteri kehakiman amp mensesneg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['kita', 'telah', 'bekerja', 'keras', 'amp', 'berikhtiar', 'sejak', 'penetapan', 'paslon', 'sampai', 'dgn', 'akhir', 'masa', 'kampanye', 'mari', 'kita', 'sempurnakan']</t>
+          <t>['turut', 'berduka', 'cita', 'atas', 'wafatnya', 'prof', 'muladi', 'beliau', 'pernah', 'menjabat', 'sbg', 'menteri', 'kehakiman', 'amp', 'mensesneg']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['turut', 'berduka', 'cita', 'atas', 'wafatnya', 'prof', 'muladi', 'beliau', 'pernah', 'menjabat', 'sebagai', 'menteri', 'kehakiman', 'amp', 'menteri, sekretaris, negara']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['keras', 'berikhtiar', 'penetapan', 'paslon', 'kampanye', 'mari', 'sempurnakan']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['keras', 'ikhtiar', 'tetap', 'paslon', 'kampanye', 'mari', 'sempurna']</t>
+          <t>['berduka', 'cita', 'wafatnya', 'prof', 'muladi', 'beliau', 'menjabat', 'menteri', 'kehakiman', 'menteri, sekretaris, negara']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['duka', 'cita', 'wafat', 'prof', 'muladi', 'beliau', 'jabat', 'menteri', 'hakim', 'menteri sekretaris negara']</t>
         </is>
       </c>
     </row>
